--- a/Data/Proxy/NewFileEditsSummary.xlsx
+++ b/Data/Proxy/NewFileEditsSummary.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\zResearch\Manuscript\HoloceneHydroclimate\Data\Proxy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clh624\Desktop\HoloceneHydroclimate\Data\Proxy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE33CAF-3BCC-4DAF-880D-8C372641D88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4EB577-C586-48FB-B3D7-566ACA3D7384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB19487E-6E10-C044-8919-5786AACFCB58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DB19487E-6E10-C044-8919-5786AACFCB58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AU$148</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="642">
   <si>
     <t>TSid</t>
   </si>
@@ -1940,6 +1941,30 @@
   </si>
   <si>
     <t>"Our δDwax record inferred from Lugu Lake, reflecting δDp changes, likely indicates variations of the overall ISM “intensity” over the past 28 ka...the overall increasing δDwax indicates a general decreasing trend in the overall ISM monsoon “intensity”......Hence, our data reveal a coherent change in rainfall isotopes in both ISM and EASM regions over the past ∼28 ka"</t>
+  </si>
+  <si>
+    <t>Check/change metadata</t>
+  </si>
+  <si>
+    <t>Filter tso TRUE/FALSE for new datasets and duplicates with existing data</t>
+  </si>
+  <si>
+    <t>New dasboards</t>
+  </si>
+  <si>
+    <t>QC sheet</t>
+  </si>
+  <si>
+    <t>0_newdatadash</t>
+  </si>
+  <si>
+    <t>Figure2</t>
+  </si>
+  <si>
+    <t>source pie chart colors</t>
+  </si>
+  <si>
+    <t>limits for plots</t>
   </si>
 </sst>
 </file>
@@ -2369,7 +2394,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AU148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -8059,4 +8084,56 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A898649-569A-4432-B840-FC8BA0D92C37}">
+  <dimension ref="A3:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>638</v>
+      </c>
+      <c r="B3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>638</v>
+      </c>
+      <c r="B4" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>639</v>
+      </c>
+      <c r="B6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>641</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Proxy/NewFileEditsSummary.xlsx
+++ b/Data/Proxy/NewFileEditsSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clh624\Desktop\HoloceneHydroclimate\Data\Proxy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4EB577-C586-48FB-B3D7-566ACA3D7384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62789190-421F-483E-933D-1EBCB9C6411F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DB19487E-6E10-C044-8919-5786AACFCB58}"/>
+    <workbookView xWindow="1515" yWindow="2670" windowWidth="15075" windowHeight="10635" xr2:uid="{DB19487E-6E10-C044-8919-5786AACFCB58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="650">
   <si>
     <t>TSid</t>
   </si>
@@ -1965,13 +1965,37 @@
   </si>
   <si>
     <t>limits for plots</t>
+  </si>
+  <si>
+    <t>stratigraphy</t>
+  </si>
+  <si>
+    <t>Check that transferred correctly</t>
+  </si>
+  <si>
+    <t>Check things that don't lool right</t>
+  </si>
+  <si>
+    <t>Finish ez</t>
+  </si>
+  <si>
+    <t>Standardize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filter paleodiver and legacyclimate </t>
+  </si>
+  <si>
+    <t>check for duplicates from above</t>
+  </si>
+  <si>
+    <t>add false comments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2027,9 +2051,56 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2059,7 +2130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -2073,9 +2144,23 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2392,13 +2477,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED6B9AD-348D-864D-80F3-3B5D7E34C151}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AU148"/>
+  <dimension ref="A1:AU158"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="R45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ10" sqref="AQ10"/>
+      <selection pane="bottomRight" activeCell="T77" sqref="T77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2548,14 +2633,14 @@
       <c r="AT1" s="4"/>
       <c r="AU1" s="4"/>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="12" t="s">
         <v>67</v>
       </c>
       <c r="D2" t="s">
@@ -2564,60 +2649,77 @@
       <c r="E2" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AE2" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AF2" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AO2" t="b">
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AP2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AQ2" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D3" t="s">
@@ -2626,110 +2728,148 @@
       <c r="E3" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AB3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AE3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AF3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AG3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AO3" t="b">
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AP3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AQ3" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4"/>
+      <c r="C4" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="AB4" s="11" t="s">
+      <c r="AB4" s="14" t="s">
         <v>524</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD4" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AE4" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AF4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AG4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AI4" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="AO4" s="1" t="b">
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AP4" s="1" t="s">
+      <c r="AP4" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5"/>
+      <c r="C5" s="12" t="s">
         <v>290</v>
       </c>
       <c r="D5" t="s">
@@ -2747,60 +2887,75 @@
       <c r="H5">
         <v>-1211</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Z5" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AA5" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AB5" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AD5" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AE5" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AF5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AG5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AI5" s="1" t="s">
+      <c r="AI5" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="AO5" s="1" t="b">
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AP5" s="1" t="s">
+      <c r="AP5" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AQ5" s="12" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6"/>
+      <c r="C6" s="12" t="s">
         <v>281</v>
       </c>
       <c r="D6" t="s">
@@ -2818,111 +2973,145 @@
       <c r="H6">
         <v>5</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="Z6" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AA6" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AB6" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AD6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AE6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AF6" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AG6" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AI6" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="AO6" s="1" t="b">
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AP6" s="1" t="s">
+      <c r="AP6" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7"/>
+      <c r="C7" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="V7" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="Z7" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AA7" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AB7" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AC7" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AD7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AE7" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AF7" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AG7" s="1" t="s">
+      <c r="AG7" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AI7" s="1" t="s">
+      <c r="AI7" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="AO7" s="1" t="b">
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AP7" s="1"/>
-    </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="AP7" s="15"/>
+    </row>
+    <row r="8" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>109</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="15" t="s">
         <v>145</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2967,52 +3156,52 @@
       <c r="Q8" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="R8" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1" t="s">
+      <c r="S8" s="15"/>
+      <c r="T8" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="U8" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="V8" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1" t="s">
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AA8" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AB8" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AC8" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AD8" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AE8" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AF8" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AG8" s="1" t="s">
+      <c r="AG8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AH8" s="15">
         <v>0.1410303712</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AI8" s="15" t="s">
         <v>125</v>
       </c>
       <c r="AJ8" s="1">
@@ -3026,22 +3215,22 @@
       </c>
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
-      <c r="AO8" s="1" t="b">
+      <c r="AO8" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AP8" s="1" t="s">
+      <c r="AP8" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="AQ8" s="1" t="s">
+      <c r="AQ8" s="15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>629</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="15" t="s">
         <v>625</v>
       </c>
       <c r="D9" s="1"/>
@@ -3058,48 +3247,48 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1" t="s">
+      <c r="S9" s="15"/>
+      <c r="T9" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="U9" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="V9" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="W9" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1" t="s">
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="AA9" s="1" t="s">
+      <c r="AA9" s="15" t="s">
         <v>627</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AB9" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1" t="s">
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AE9" s="1" t="s">
+      <c r="AE9" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AF9" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AG9" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1" t="s">
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15" t="s">
         <v>141</v>
       </c>
       <c r="AJ9" s="1"/>
@@ -3107,22 +3296,22 @@
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
-      <c r="AO9" s="1" t="b">
+      <c r="AO9" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AP9" s="1" t="s">
+      <c r="AP9" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="AQ9" s="1"/>
-    </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="AQ9" s="15"/>
+    </row>
+    <row r="10" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>110</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="15" t="s">
         <v>111</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -3163,46 +3352,46 @@
         <v>118</v>
       </c>
       <c r="Q10" s="1"/>
-      <c r="R10" s="2" t="s">
+      <c r="R10" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1" t="s">
+      <c r="S10" s="15"/>
+      <c r="T10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="V10" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1" t="s">
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="AA10" s="1" t="s">
+      <c r="AA10" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="AB10" s="1" t="s">
+      <c r="AB10" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1" t="s">
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AE10" s="1" t="s">
+      <c r="AE10" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="AF10" s="1" t="s">
+      <c r="AF10" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AG10" s="1" t="s">
+      <c r="AG10" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1" t="s">
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15" t="s">
         <v>125</v>
       </c>
       <c r="AJ10" s="1"/>
@@ -3210,22 +3399,22 @@
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
-      <c r="AO10" s="1" t="b">
+      <c r="AO10" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AP10" s="1" t="s">
+      <c r="AP10" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="AQ10" s="1" t="s">
+      <c r="AQ10" s="15" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>619</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="15" t="s">
         <v>616</v>
       </c>
       <c r="D11" s="1"/>
@@ -3242,48 +3431,48 @@
       <c r="O11" s="1"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="2" t="s">
+      <c r="R11" s="13" t="s">
         <v>617</v>
       </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1" t="s">
+      <c r="S11" s="15"/>
+      <c r="T11" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="U11" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="V11" t="s">
+      <c r="V11" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="W11" s="15" t="s">
         <v>615</v>
       </c>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1" t="s">
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15" t="s">
         <v>618</v>
       </c>
-      <c r="AA11" s="1" t="s">
+      <c r="AA11" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AB11" s="1" t="s">
+      <c r="AB11" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1" t="s">
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AE11" s="12" t="s">
+      <c r="AE11" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="AF11" s="1" t="s">
+      <c r="AF11" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="AG11" s="1" t="s">
+      <c r="AG11" s="15" t="s">
         <v>614</v>
       </c>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1" t="s">
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15" t="s">
         <v>141</v>
       </c>
       <c r="AJ11" s="1"/>
@@ -3291,22 +3480,22 @@
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
-      <c r="AO11" s="1" t="b">
+      <c r="AO11" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AP11" s="1" t="s">
+      <c r="AP11" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="AQ11" s="1" t="s">
+      <c r="AQ11" s="15" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="12" t="s">
         <v>387</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" t="s">
+      <c r="C12" s="12" t="s">
         <v>631</v>
       </c>
       <c r="D12" s="1"/>
@@ -3323,46 +3512,46 @@
       <c r="O12" s="1"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="2" t="s">
+      <c r="R12" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1" t="s">
+      <c r="S12" s="15"/>
+      <c r="T12" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="U12" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="V12" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1" t="s">
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AA12" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="AB12" s="1" t="s">
+      <c r="AB12" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1" t="s">
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AE12" s="12" t="s">
+      <c r="AE12" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="AF12" s="1" t="s">
+      <c r="AF12" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AG12" s="1" t="s">
+      <c r="AG12" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1" t="s">
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15" t="s">
         <v>141</v>
       </c>
       <c r="AJ12" s="1"/>
@@ -3370,25 +3559,25 @@
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
-      <c r="AO12" s="1" t="b">
+      <c r="AO12" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AP12" s="1" t="s">
+      <c r="AP12" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="AQ12" s="1"/>
-      <c r="AR12" t="s">
+      <c r="AQ12" s="15"/>
+      <c r="AR12" s="12" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="15" t="s">
         <v>632</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="15" t="s">
         <v>126</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -3429,48 +3618,48 @@
         <v>133</v>
       </c>
       <c r="Q13" s="1"/>
-      <c r="R13" s="2" t="s">
+      <c r="R13" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1" t="s">
+      <c r="S13" s="15"/>
+      <c r="T13" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="U13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="V13" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="W13" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1" t="s">
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="AA13" s="1" t="s">
+      <c r="AA13" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AB13" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1" t="s">
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AE13" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="AF13" s="1" t="s">
+      <c r="AF13" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AG13" s="1" t="s">
+      <c r="AG13" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1" t="s">
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15" t="s">
         <v>141</v>
       </c>
       <c r="AJ13" s="1"/>
@@ -3480,22 +3669,23 @@
       </c>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
-      <c r="AO13" s="1" t="b">
+      <c r="AO13" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AP13" s="1" t="s">
+      <c r="AP13" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="AQ13" s="1" t="s">
+      <c r="AQ13" s="15" t="s">
         <v>142</v>
       </c>
+      <c r="AR13" s="12"/>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="15" t="s">
         <v>578</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="15" t="s">
         <v>581</v>
       </c>
       <c r="D14" s="1"/>
@@ -3512,48 +3702,48 @@
       <c r="O14" s="1"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="2" t="s">
+      <c r="R14" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1" t="s">
+      <c r="S14" s="15"/>
+      <c r="T14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="U14" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="V14" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1" t="s">
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15" t="s">
         <v>577</v>
       </c>
-      <c r="AA14" s="1" t="s">
+      <c r="AA14" s="15" t="s">
         <v>574</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AB14" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AC14" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AD14" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AE14" s="1" t="s">
+      <c r="AE14" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="AF14" s="1" t="s">
+      <c r="AF14" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AG14" s="1" t="s">
+      <c r="AG14" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AH14" s="1"/>
-      <c r="AI14" t="s">
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="12" t="s">
         <v>125</v>
       </c>
       <c r="AJ14" s="1"/>
@@ -3561,18 +3751,19 @@
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
-      <c r="AO14" s="1" t="b">
+      <c r="AO14" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AP14" s="1"/>
-      <c r="AQ14" s="1"/>
+      <c r="AP14" s="15"/>
+      <c r="AQ14" s="15"/>
+      <c r="AR14" s="12"/>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="15" t="s">
         <v>579</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="15" t="s">
         <v>581</v>
       </c>
       <c r="D15" s="1"/>
@@ -3589,48 +3780,48 @@
       <c r="O15" s="1"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="2" t="s">
+      <c r="R15" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1" t="s">
+      <c r="S15" s="15"/>
+      <c r="T15" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U15" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V15" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1" t="s">
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15" t="s">
         <v>577</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AA15" s="15" t="s">
         <v>572</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AB15" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AC15" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AD15" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AE15" s="1" t="s">
+      <c r="AE15" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="AF15" s="1" t="s">
+      <c r="AF15" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="AG15" s="1" t="s">
+      <c r="AG15" s="15" t="s">
         <v>575</v>
       </c>
-      <c r="AH15" s="1"/>
-      <c r="AI15" t="s">
+      <c r="AH15" s="15"/>
+      <c r="AI15" s="12" t="s">
         <v>125</v>
       </c>
       <c r="AJ15" s="1"/>
@@ -3638,18 +3829,19 @@
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
-      <c r="AO15" s="1" t="b">
+      <c r="AO15" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AP15" s="1"/>
-      <c r="AQ15" s="1"/>
+      <c r="AP15" s="15"/>
+      <c r="AQ15" s="15"/>
+      <c r="AR15" s="12"/>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="15" t="s">
         <v>580</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="15" t="s">
         <v>581</v>
       </c>
       <c r="D16" s="1"/>
@@ -3666,48 +3858,48 @@
       <c r="O16" s="1"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="2" t="s">
+      <c r="R16" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1" t="s">
+      <c r="S16" s="15"/>
+      <c r="T16" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="U16" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="V16" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1" t="s">
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15" t="s">
         <v>577</v>
       </c>
-      <c r="AA16" s="1" t="s">
+      <c r="AA16" s="15" t="s">
         <v>573</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AB16" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AC16" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AD16" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AE16" s="1" t="s">
+      <c r="AE16" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="AF16" s="1" t="s">
+      <c r="AF16" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="AG16" s="1" t="s">
+      <c r="AG16" s="15" t="s">
         <v>576</v>
       </c>
-      <c r="AH16" s="1"/>
-      <c r="AI16" t="s">
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="12" t="s">
         <v>125</v>
       </c>
       <c r="AJ16" s="1"/>
@@ -3715,61 +3907,70 @@
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
-      <c r="AO16" s="1" t="b">
+      <c r="AO16" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AP16" s="1"/>
-      <c r="AQ16" s="1"/>
+      <c r="AP16" s="15"/>
+      <c r="AQ16" s="15"/>
+      <c r="AR16" s="12"/>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="R17" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="T17" t="s">
+      <c r="S17" s="12"/>
+      <c r="T17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="U17" t="s">
+      <c r="U17" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="V17" t="s">
+      <c r="V17" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AA17" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AB17" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AC17" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AD17" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AE17" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="AF17" s="1" t="s">
+      <c r="AF17" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AG17" s="1" t="s">
+      <c r="AG17" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AO17" t="b">
+      <c r="AO17" s="12" t="b">
         <v>1</v>
       </c>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
     </row>
     <row r="18" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
@@ -3805,10 +4006,10 @@
       </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D21" t="s">
@@ -3817,52 +4018,58 @@
       <c r="E21" t="s">
         <v>302</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="R21" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="S21" s="12"/>
+      <c r="T21" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="U21" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="V21" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AB21" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AC21" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AD21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AE21" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="AF21" s="1" t="s">
+      <c r="AF21" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AG21" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AI21" t="s">
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AO21" t="b">
+      <c r="AO21" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="AP21" t="s">
+      <c r="AP21" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="AQ21" t="s">
+      <c r="AQ21" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="AR21" t="s">
+      <c r="AR21" s="12" t="s">
         <v>630</v>
       </c>
     </row>
@@ -3881,7 +4088,7 @@
       <c r="A23" t="s">
         <v>324</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D23" t="s">
@@ -3943,7 +4150,7 @@
       <c r="A24" t="s">
         <v>325</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D24" t="s">
@@ -4002,10 +4209,10 @@
       </c>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="12" t="s">
         <v>84</v>
       </c>
       <c r="D25" t="s">
@@ -4014,46 +4221,54 @@
       <c r="E25" t="s">
         <v>322</v>
       </c>
-      <c r="R25" s="2" t="s">
+      <c r="R25" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="T25" t="s">
+      <c r="S25" s="12"/>
+      <c r="T25" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="U25" t="s">
+      <c r="U25" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="V25" t="s">
+      <c r="V25" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AA25" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AB25" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AE25" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="AF25" s="1" t="s">
+      <c r="AF25" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AG25" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AI25" t="s">
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="AO25" t="b">
+      <c r="AO25" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="AR25" t="s">
+      <c r="AP25" s="12"/>
+      <c r="AQ25" s="12"/>
+      <c r="AR25" s="12" t="s">
         <v>630</v>
       </c>
     </row>
@@ -4066,10 +4281,10 @@
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="12" t="s">
         <v>86</v>
       </c>
       <c r="D27" t="s">
@@ -4078,54 +4293,62 @@
       <c r="E27" t="s">
         <v>332</v>
       </c>
-      <c r="R27" s="2" t="s">
+      <c r="R27" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="T27" t="s">
+      <c r="S27" s="12"/>
+      <c r="T27" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="U27" t="s">
+      <c r="U27" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="V27" t="s">
+      <c r="V27" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AA27" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AB27" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AE27" s="7" t="s">
+      <c r="AE27" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="AF27" s="1" t="s">
+      <c r="AF27" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AG27" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AI27" t="s">
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="AO27" t="b">
+      <c r="AO27" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="AR27" t="s">
+      <c r="AP27" s="12"/>
+      <c r="AQ27" s="12"/>
+      <c r="AR27" s="12" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="12" t="s">
         <v>86</v>
       </c>
       <c r="D28" t="s">
@@ -4134,52 +4357,58 @@
       <c r="E28" t="s">
         <v>332</v>
       </c>
-      <c r="R28" s="2" t="s">
+      <c r="R28" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="T28" t="s">
+      <c r="S28" s="12"/>
+      <c r="T28" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="U28" t="s">
+      <c r="U28" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="V28" t="s">
+      <c r="V28" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AA28" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AB28" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AE28" t="s">
+      <c r="AE28" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="AF28" s="1" t="s">
+      <c r="AF28" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AG28" t="s">
+      <c r="AG28" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AI28" t="s">
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AO28" t="b">
+      <c r="AO28" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="AP28" t="s">
+      <c r="AP28" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AQ28" t="s">
+      <c r="AQ28" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="AR28" t="s">
+      <c r="AR28" s="12" t="s">
         <v>630</v>
       </c>
     </row>
@@ -4187,7 +4416,7 @@
       <c r="A29" t="s">
         <v>346</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D29" t="s">
@@ -4257,7 +4486,7 @@
       <c r="A31" t="s">
         <v>349</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D31" t="s">
@@ -4431,10 +4660,10 @@
       </c>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D34" t="s">
@@ -4443,57 +4672,65 @@
       <c r="E34" t="s">
         <v>358</v>
       </c>
-      <c r="R34" s="2" t="s">
+      <c r="R34" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="T34" s="1" t="s">
+      <c r="S34" s="12"/>
+      <c r="T34" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="U34" s="1" t="s">
+      <c r="U34" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="V34" s="1" t="s">
+      <c r="V34" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AA34" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AB34" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AE34" t="s">
+      <c r="AE34" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="AF34" s="1" t="s">
+      <c r="AF34" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AG34" t="s">
+      <c r="AG34" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AI34" t="s">
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="AO34" t="b">
+      <c r="AO34" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="AQ34" s="6" t="s">
+      <c r="AP34" s="12"/>
+      <c r="AQ34" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="AR34" t="s">
+      <c r="AR34" s="12" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B35"/>
+      <c r="C35" s="12" t="s">
         <v>91</v>
       </c>
       <c r="D35" t="s">
@@ -4502,56 +4739,75 @@
       <c r="E35" t="s">
         <v>363</v>
       </c>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
       <c r="R35" s="2" t="s">
         <v>371</v>
       </c>
       <c r="T35" t="s">
         <v>55</v>
       </c>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1" t="s">
+      <c r="U35" t="s">
+        <v>157</v>
+      </c>
+      <c r="V35" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Z35" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="AA35" t="s">
+      <c r="AA35" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="AB35" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="AC35" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="AD35" t="s">
+      <c r="AD35" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AE35" t="s">
+      <c r="AE35" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="AF35" s="1" t="s">
+      <c r="AF35" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="AG35" t="s">
+      <c r="AG35" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AI35" t="s">
+      <c r="AI35" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AO35" t="b">
+      <c r="AJ35"/>
+      <c r="AK35"/>
+      <c r="AL35"/>
+      <c r="AM35"/>
+      <c r="AN35"/>
+      <c r="AO35" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="AQ35" s="6"/>
-      <c r="AR35" t="s">
+      <c r="AR35" s="12" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B36"/>
+      <c r="C36" s="12" t="s">
         <v>91</v>
       </c>
       <c r="D36" t="s">
@@ -4560,43 +4816,63 @@
       <c r="E36" t="s">
         <v>363</v>
       </c>
-      <c r="R36" s="2" t="s">
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36" s="13" t="s">
         <v>371</v>
       </c>
       <c r="T36" t="s">
         <v>55</v>
       </c>
-      <c r="V36" s="1" t="s">
+      <c r="U36" t="s">
+        <v>157</v>
+      </c>
+      <c r="V36" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Z36" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="AA36" t="s">
+      <c r="AA36" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="AB36" t="s">
+      <c r="AB36" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="AD36" t="s">
+      <c r="AD36" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AE36" t="s">
+      <c r="AE36" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="AF36" s="1" t="s">
+      <c r="AF36" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AG36" t="s">
+      <c r="AG36" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AI36" t="s">
+      <c r="AI36" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AO36" t="b">
+      <c r="AJ36"/>
+      <c r="AK36"/>
+      <c r="AL36"/>
+      <c r="AM36"/>
+      <c r="AN36"/>
+      <c r="AO36" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="AR36" t="s">
+      <c r="AR36" s="12" t="s">
         <v>630</v>
       </c>
     </row>
@@ -4665,10 +4941,10 @@
       </c>
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="12" t="s">
         <v>383</v>
       </c>
       <c r="D39" t="s">
@@ -4677,113 +4953,126 @@
       <c r="E39" t="s">
         <v>363</v>
       </c>
-      <c r="R39" s="2" t="s">
+      <c r="R39" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="T39" s="1" t="s">
+      <c r="S39" s="12"/>
+      <c r="T39" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="U39" s="1" t="s">
+      <c r="U39" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="AA39" t="s">
+      <c r="V39" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AB39" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="AC39" t="s">
+      <c r="AC39" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="AD39" t="s">
+      <c r="AD39" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AE39" t="s">
+      <c r="AE39" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="AF39" s="1" t="s">
+      <c r="AF39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AG39" t="s">
+      <c r="AG39" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AI39" t="s">
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AO39" s="1" t="b">
+      <c r="AO39" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AQ39" s="6" t="s">
+      <c r="AP39" s="12"/>
+      <c r="AQ39" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="AR39" t="s">
+      <c r="AR39" s="12" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="R40" s="2" t="s">
+      <c r="R40" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="T40" t="s">
+      <c r="S40" s="12"/>
+      <c r="T40" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="U40" s="1" t="s">
+      <c r="U40" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="V40" s="1" t="s">
+      <c r="V40" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="X40" t="s">
+      <c r="W40" s="12"/>
+      <c r="X40" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AB40" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="AC40" t="s">
+      <c r="AC40" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="AD40" t="s">
+      <c r="AD40" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AE40" s="6" t="s">
+      <c r="AE40" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="AF40" t="s">
+      <c r="AF40" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AG40" t="s">
+      <c r="AG40" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AI40" t="s">
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AO40" s="10" t="b">
+      <c r="AO40" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AQ40" t="s">
+      <c r="AP40" s="12"/>
+      <c r="AQ40" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="AR40" t="s">
+      <c r="AR40" s="12" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D41" t="s">
@@ -4792,46 +5081,54 @@
       <c r="E41" t="s">
         <v>395</v>
       </c>
-      <c r="R41" s="2" t="s">
+      <c r="R41" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="T41" t="s">
+      <c r="S41" s="12"/>
+      <c r="T41" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="U41" t="s">
+      <c r="U41" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="V41" t="s">
+      <c r="V41" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AA41" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AB41" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="AD41" t="s">
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AE41" s="7" t="s">
+      <c r="AE41" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="AF41" s="1" t="s">
+      <c r="AF41" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AG41" t="s">
+      <c r="AG41" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AI41" t="s">
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="AO41" t="b">
+      <c r="AO41" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="AR41" t="s">
+      <c r="AP41" s="12"/>
+      <c r="AQ41" s="12"/>
+      <c r="AR41" s="12" t="s">
         <v>630</v>
       </c>
     </row>
@@ -4941,52 +5238,61 @@
       </c>
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="12" t="s">
         <v>98</v>
       </c>
       <c r="D45" t="s">
         <v>400</v>
       </c>
-      <c r="R45" s="2" t="s">
+      <c r="R45" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="T45" t="s">
+      <c r="S45" s="12"/>
+      <c r="T45" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="V45" t="s">
+      <c r="U45" s="12"/>
+      <c r="V45" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AA45" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AB45" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="AD45" t="s">
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AE45" t="s">
+      <c r="AE45" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="AF45" s="1" t="s">
+      <c r="AF45" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AG45" t="s">
+      <c r="AG45" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AI45" t="s">
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AO45" s="8" t="b">
+      <c r="AO45" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AR45" t="s">
+      <c r="AP45" s="12"/>
+      <c r="AQ45" s="12"/>
+      <c r="AR45" s="12" t="s">
         <v>630</v>
       </c>
     </row>
@@ -5047,61 +5353,67 @@
       </c>
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="12" t="s">
         <v>98</v>
       </c>
       <c r="D47" t="s">
         <v>400</v>
       </c>
-      <c r="R47" s="2" t="s">
+      <c r="R47" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="T47" t="s">
+      <c r="S47" s="12"/>
+      <c r="T47" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="U47" t="s">
+      <c r="U47" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="V47" t="s">
+      <c r="V47" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="W47" t="s">
+      <c r="W47" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="X47" t="s">
+      <c r="X47" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AA47" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AB47" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="AD47" t="s">
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AE47" s="7" t="s">
+      <c r="AE47" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="AF47" s="1" t="s">
+      <c r="AF47" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AG47" t="s">
+      <c r="AG47" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AI47" t="s">
+      <c r="AH47" s="12"/>
+      <c r="AI47" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="AO47" s="8" t="b">
+      <c r="AO47" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AR47" t="s">
+      <c r="AP47" s="12"/>
+      <c r="AQ47" s="12"/>
+      <c r="AR47" s="12" t="s">
         <v>630</v>
       </c>
     </row>
@@ -5208,55 +5520,63 @@
       </c>
     </row>
     <row r="54" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D54" t="s">
         <v>425</v>
       </c>
-      <c r="R54" s="2" t="s">
+      <c r="R54" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="T54" t="s">
+      <c r="S54" s="12"/>
+      <c r="T54" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="U54" t="s">
+      <c r="U54" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="V54" t="s">
+      <c r="V54" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Z54" s="1" t="s">
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AA54" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AB54" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="AD54" t="s">
+      <c r="AC54" s="12"/>
+      <c r="AD54" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AE54" t="s">
+      <c r="AE54" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="AF54" s="1" t="s">
+      <c r="AF54" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AG54" t="s">
+      <c r="AG54" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AI54" t="s">
+      <c r="AH54" s="12"/>
+      <c r="AI54" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="AO54" s="1" t="b">
+      <c r="AO54" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AR54" t="s">
+      <c r="AP54" s="12"/>
+      <c r="AQ54" s="12"/>
+      <c r="AR54" s="12" t="s">
         <v>630</v>
       </c>
     </row>
@@ -5308,55 +5628,63 @@
       </c>
     </row>
     <row r="56" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="12" t="s">
         <v>105</v>
       </c>
       <c r="D56" t="s">
         <v>426</v>
       </c>
-      <c r="R56" s="2" t="s">
+      <c r="R56" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="T56" t="s">
+      <c r="S56" s="12"/>
+      <c r="T56" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="U56" t="s">
+      <c r="U56" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="V56" t="s">
+      <c r="V56" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Z56" s="1" t="s">
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AA56" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AB56" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="AD56" t="s">
+      <c r="AC56" s="12"/>
+      <c r="AD56" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AE56" t="s">
+      <c r="AE56" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="AF56" s="1" t="s">
+      <c r="AF56" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AG56" t="s">
+      <c r="AG56" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AI56" t="s">
+      <c r="AH56" s="12"/>
+      <c r="AI56" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="AO56" s="1" t="b">
+      <c r="AO56" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AR56" t="s">
+      <c r="AP56" s="12"/>
+      <c r="AQ56" s="12"/>
+      <c r="AR56" s="12" t="s">
         <v>630</v>
       </c>
     </row>
@@ -5563,10 +5891,10 @@
       </c>
     </row>
     <row r="62" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="12" t="s">
         <v>217</v>
       </c>
       <c r="D62" t="s">
@@ -5575,54 +5903,62 @@
       <c r="E62" t="s">
         <v>363</v>
       </c>
-      <c r="R62" s="2" t="s">
+      <c r="R62" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="T62" s="1" t="s">
+      <c r="S62" s="12"/>
+      <c r="T62" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="U62" t="s">
+      <c r="U62" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="V62" s="1" t="s">
+      <c r="V62" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AA62" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AB62" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AD62" t="s">
+      <c r="AC62" s="12"/>
+      <c r="AD62" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AE62" t="s">
+      <c r="AE62" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AF62" s="1" t="s">
+      <c r="AF62" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="AG62" t="s">
+      <c r="AG62" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AI62" t="s">
+      <c r="AH62" s="12"/>
+      <c r="AI62" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="AO62" s="1" t="b">
+      <c r="AO62" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AR62" t="s">
+      <c r="AP62" s="12"/>
+      <c r="AQ62" s="12"/>
+      <c r="AR62" s="12" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="63" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="12" t="s">
         <v>218</v>
       </c>
       <c r="D63" t="s">
@@ -5631,54 +5967,63 @@
       <c r="E63" t="s">
         <v>363</v>
       </c>
-      <c r="R63" s="2" t="s">
+      <c r="R63" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="T63" t="s">
+      <c r="S63" s="12"/>
+      <c r="T63" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="V63" s="1" t="s">
+      <c r="U63" s="12"/>
+      <c r="V63" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AA63" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AB63" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="AD63" t="s">
+      <c r="AC63" s="12"/>
+      <c r="AD63" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AE63" t="s">
+      <c r="AE63" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="AF63" s="1" t="s">
+      <c r="AF63" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="AG63" t="s">
+      <c r="AG63" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AI63" t="s">
+      <c r="AH63" s="12"/>
+      <c r="AI63" s="12" t="s">
         <v>125</v>
       </c>
       <c r="AJ63" t="b">
         <v>1</v>
       </c>
-      <c r="AO63" s="1" t="b">
+      <c r="AO63" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AR63" t="s">
+      <c r="AP63" s="12"/>
+      <c r="AQ63" s="12"/>
+      <c r="AR63" s="12" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="64" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="12" t="s">
         <v>219</v>
       </c>
       <c r="D64" t="s">
@@ -5687,52 +6032,61 @@
       <c r="E64" t="s">
         <v>363</v>
       </c>
-      <c r="R64" s="2" t="s">
+      <c r="R64" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="T64" s="1" t="s">
+      <c r="S64" s="12"/>
+      <c r="T64" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="V64" s="1"/>
-      <c r="Z64" t="s">
+      <c r="U64" s="12"/>
+      <c r="V64" s="15"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="12"/>
+      <c r="Z64" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AA64" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AB64" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AD64" t="s">
+      <c r="AC64" s="12"/>
+      <c r="AD64" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AE64" s="7" t="s">
+      <c r="AE64" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="AF64" s="1" t="s">
+      <c r="AF64" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AG64" t="s">
+      <c r="AG64" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AI64" t="s">
+      <c r="AH64" s="12"/>
+      <c r="AI64" s="12" t="s">
         <v>141</v>
       </c>
       <c r="AJ64" t="b">
         <v>1</v>
       </c>
-      <c r="AO64" s="1" t="b">
+      <c r="AO64" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AR64" t="s">
+      <c r="AP64" s="12"/>
+      <c r="AQ64" s="12"/>
+      <c r="AR64" s="12" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="12" t="s">
         <v>220</v>
       </c>
       <c r="D65" t="s">
@@ -5741,96 +6095,112 @@
       <c r="E65" t="s">
         <v>363</v>
       </c>
-      <c r="R65" s="2" t="s">
+      <c r="R65" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="T65" s="1" t="s">
+      <c r="S65" s="12"/>
+      <c r="T65" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="V65" s="1" t="s">
+      <c r="U65" s="12"/>
+      <c r="V65" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="W65" s="12"/>
+      <c r="X65" s="12"/>
+      <c r="Y65" s="12"/>
+      <c r="Z65" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AA65" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AB65" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="AD65" t="s">
+      <c r="AC65" s="12"/>
+      <c r="AD65" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AE65" s="7" t="s">
+      <c r="AE65" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="AF65" s="1" t="s">
+      <c r="AF65" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AG65" t="s">
+      <c r="AG65" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AI65" t="s">
+      <c r="AH65" s="12"/>
+      <c r="AI65" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AO65" s="1" t="b">
+      <c r="AO65" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AR65" t="s">
+      <c r="AP65" s="12"/>
+      <c r="AQ65" s="12"/>
+      <c r="AR65" s="12" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="66" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="R66" s="2" t="s">
+      <c r="R66" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="U66" s="1" t="s">
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="V66" s="1" t="s">
+      <c r="V66" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="X66" t="s">
+      <c r="W66" s="12"/>
+      <c r="X66" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="Y66" s="12"/>
+      <c r="Z66" s="12"/>
+      <c r="AA66" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AB66" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="AC66" t="s">
+      <c r="AC66" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="AD66" t="s">
+      <c r="AD66" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AE66" s="6" t="s">
+      <c r="AE66" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="AF66" t="s">
+      <c r="AF66" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AG66" t="s">
+      <c r="AG66" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AI66" t="s">
+      <c r="AH66" s="12"/>
+      <c r="AI66" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AO66" s="1" t="b">
+      <c r="AO66" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AQ66" t="s">
+      <c r="AP66" s="12"/>
+      <c r="AQ66" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="AR66" t="s">
+      <c r="AR66" s="12" t="s">
         <v>630</v>
       </c>
     </row>
@@ -5902,7 +6272,7 @@
       </c>
     </row>
     <row r="69" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
+      <c r="C69" s="12" t="s">
         <v>223</v>
       </c>
       <c r="D69" t="s">
@@ -5911,48 +6281,55 @@
       <c r="E69" t="s">
         <v>363</v>
       </c>
-      <c r="R69" s="2" t="s">
+      <c r="R69" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="T69" s="1" t="s">
+      <c r="S69" s="12"/>
+      <c r="T69" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="U69" t="s">
+      <c r="U69" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="V69" s="1" t="s">
+      <c r="V69" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="W69" s="12"/>
+      <c r="X69" s="12"/>
+      <c r="Y69" s="12"/>
+      <c r="Z69" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AA69" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AB69" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AD69" t="s">
+      <c r="AC69" s="12"/>
+      <c r="AD69" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AE69" t="s">
+      <c r="AE69" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AF69" s="1" t="s">
+      <c r="AF69" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="AG69" t="s">
+      <c r="AG69" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AI69" t="s">
+      <c r="AH69" s="12"/>
+      <c r="AI69" s="12" t="s">
         <v>141</v>
       </c>
       <c r="AJ69" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AO69" t="b">
+      <c r="AO69" s="12" t="b">
         <v>1</v>
       </c>
+      <c r="AP69" s="12"/>
       <c r="AQ69" t="s">
         <v>381</v>
       </c>
@@ -5985,49 +6362,58 @@
       </c>
     </row>
     <row r="73" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="R73" s="2" t="s">
+      <c r="R73" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="T73" s="1" t="s">
+      <c r="S73" s="12"/>
+      <c r="T73" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="V73" s="1" t="s">
+      <c r="U73" s="12"/>
+      <c r="V73" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="W73" s="12"/>
+      <c r="X73" s="12"/>
+      <c r="Y73" s="12"/>
+      <c r="Z73" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="AA73" s="1" t="s">
+      <c r="AA73" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AB73" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AD73" t="s">
+      <c r="AC73" s="12"/>
+      <c r="AD73" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AE73" s="7" t="s">
+      <c r="AE73" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="AF73" t="s">
+      <c r="AF73" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AG73" t="s">
+      <c r="AG73" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AI73" t="s">
+      <c r="AH73" s="12"/>
+      <c r="AI73" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="AO73" t="b">
+      <c r="AO73" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="AR73" t="s">
+      <c r="AP73" s="12"/>
+      <c r="AQ73" s="12"/>
+      <c r="AR73" s="12" t="s">
         <v>630</v>
       </c>
     </row>
@@ -6140,55 +6526,62 @@
       </c>
     </row>
     <row r="77" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="R77" s="2" t="s">
+      <c r="R77" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="T77" s="1" t="s">
+      <c r="S77" s="12"/>
+      <c r="T77" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="U77" t="s">
+      <c r="U77" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="V77" s="1" t="s">
+      <c r="V77" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="W77" t="s">
+      <c r="W77" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="X77" s="12"/>
+      <c r="Y77" s="12"/>
+      <c r="Z77" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AA77" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AB77" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AD77" t="s">
+      <c r="AC77" s="12"/>
+      <c r="AD77" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AE77" t="s">
+      <c r="AE77" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AF77" t="s">
+      <c r="AF77" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AG77" t="s">
+      <c r="AG77" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AI77" t="s">
+      <c r="AH77" s="12"/>
+      <c r="AI77" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="AO77" t="b">
+      <c r="AO77" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="AR77" t="s">
+      <c r="AP77" s="12"/>
+      <c r="AQ77" s="12"/>
+      <c r="AR77" s="12" t="s">
         <v>630</v>
       </c>
     </row>
@@ -6349,7 +6742,7 @@
       </c>
     </row>
     <row r="84" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="11" t="s">
         <v>236</v>
       </c>
       <c r="T84" s="1" t="s">
@@ -6393,7 +6786,7 @@
       </c>
     </row>
     <row r="85" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="11" t="s">
         <v>237</v>
       </c>
       <c r="V85" s="1" t="s">
@@ -6404,7 +6797,7 @@
       </c>
     </row>
     <row r="86" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="11" t="s">
         <v>238</v>
       </c>
       <c r="V86" s="1" t="s">
@@ -6415,7 +6808,7 @@
       </c>
     </row>
     <row r="87" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="11" t="s">
         <v>239</v>
       </c>
       <c r="V87" s="1" t="s">
@@ -6432,7 +6825,7 @@
       <c r="A88" t="s">
         <v>551</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="11" t="s">
         <v>555</v>
       </c>
       <c r="R88" s="2" t="s">
@@ -6488,7 +6881,7 @@
       <c r="A89" t="s">
         <v>559</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="11" t="s">
         <v>558</v>
       </c>
       <c r="R89" s="2" t="s">
@@ -6541,7 +6934,7 @@
       </c>
     </row>
     <row r="90" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="11" t="s">
         <v>240</v>
       </c>
       <c r="V90" s="1" t="s">
@@ -6552,60 +6945,67 @@
       </c>
     </row>
     <row r="91" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="23" t="s">
         <v>605</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C91" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="R91" s="2" t="s">
+      <c r="R91" s="22" t="s">
         <v>606</v>
       </c>
-      <c r="T91" t="s">
+      <c r="S91" s="23"/>
+      <c r="T91" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="U91" t="s">
+      <c r="U91" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="V91" s="1" t="s">
+      <c r="V91" s="25" t="s">
         <v>451</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="W91" s="23"/>
+      <c r="X91" s="23"/>
+      <c r="Y91" s="23"/>
+      <c r="Z91" s="23" t="s">
         <v>607</v>
       </c>
-      <c r="AA91" t="s">
+      <c r="AA91" s="23" t="s">
         <v>451</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AB91" s="23" t="s">
         <v>604</v>
       </c>
-      <c r="AD91" t="s">
+      <c r="AC91" s="23"/>
+      <c r="AD91" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AE91" t="s">
+      <c r="AE91" s="23" t="s">
         <v>601</v>
       </c>
-      <c r="AF91" t="s">
+      <c r="AF91" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AG91" t="s">
+      <c r="AG91" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AI91" t="s">
+      <c r="AH91" s="23"/>
+      <c r="AI91" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="AO91" t="b">
+      <c r="AO91" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="AQ91" t="s">
+      <c r="AP91" s="23"/>
+      <c r="AQ91" s="23" t="s">
         <v>608</v>
       </c>
-      <c r="AR91" t="s">
+      <c r="AR91" s="23" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="92" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C92" s="13" t="s">
+      <c r="C92" s="11" t="s">
         <v>242</v>
       </c>
       <c r="V92" s="1" t="s">
@@ -6616,7 +7016,7 @@
       </c>
     </row>
     <row r="93" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="13" t="s">
+      <c r="C93" s="11" t="s">
         <v>243</v>
       </c>
       <c r="V93" s="1" t="s">
@@ -6627,7 +7027,7 @@
       </c>
     </row>
     <row r="94" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="11" t="s">
         <v>243</v>
       </c>
       <c r="V94" s="1" t="s">
@@ -6638,7 +7038,7 @@
       </c>
     </row>
     <row r="95" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C95" s="13" t="s">
+      <c r="C95" s="11" t="s">
         <v>215</v>
       </c>
       <c r="R95" s="2" t="s">
@@ -6688,7 +7088,7 @@
       </c>
     </row>
     <row r="96" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="13" t="s">
+      <c r="C96" s="11" t="s">
         <v>214</v>
       </c>
       <c r="AJ96" s="1" t="b">
@@ -6702,107 +7102,122 @@
       </c>
     </row>
     <row r="97" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C97" s="13" t="s">
+      <c r="C97" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="R97" s="2" t="s">
+      <c r="R97" s="22" t="s">
         <v>545</v>
       </c>
-      <c r="T97" t="s">
+      <c r="S97" s="23"/>
+      <c r="T97" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="U97" t="s">
+      <c r="U97" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="V97" s="1" t="s">
+      <c r="V97" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="W97" t="s">
+      <c r="W97" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="X97" s="23"/>
+      <c r="Y97" s="23"/>
+      <c r="Z97" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="AA97" t="s">
+      <c r="AA97" s="23" t="s">
         <v>461</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AB97" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="AD97" t="s">
+      <c r="AC97" s="23"/>
+      <c r="AD97" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AE97" s="7" t="s">
+      <c r="AE97" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="AF97" t="s">
+      <c r="AF97" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AG97" t="s">
+      <c r="AG97" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AI97" t="s">
+      <c r="AH97" s="23"/>
+      <c r="AI97" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="AO97" s="1" t="b">
+      <c r="AO97" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="AR97" t="s">
+      <c r="AP97" s="23"/>
+      <c r="AQ97" s="23"/>
+      <c r="AR97" s="23" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="98" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="23" t="s">
         <v>590</v>
       </c>
-      <c r="C98" s="13" t="s">
+      <c r="C98" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="R98" s="2" t="s">
+      <c r="R98" s="22" t="s">
         <v>592</v>
       </c>
-      <c r="T98" t="s">
+      <c r="S98" s="23"/>
+      <c r="T98" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="U98" t="s">
+      <c r="U98" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="V98" s="1" t="s">
+      <c r="V98" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="W98" s="23"/>
+      <c r="X98" s="23"/>
+      <c r="Y98" s="23"/>
+      <c r="Z98" s="23" t="s">
         <v>591</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AA98" s="23" t="s">
         <v>589</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AB98" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="AD98" t="s">
+      <c r="AC98" s="23"/>
+      <c r="AD98" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AE98" s="7" t="s">
+      <c r="AE98" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="AF98" t="s">
+      <c r="AF98" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AG98" t="s">
+      <c r="AG98" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AI98" t="s">
+      <c r="AH98" s="23"/>
+      <c r="AI98" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="AO98" t="b">
+      <c r="AO98" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="AR98" t="s">
+      <c r="AP98" s="23"/>
+      <c r="AQ98" s="23"/>
+      <c r="AR98" s="23" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="99" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="13" t="s">
+      <c r="C99" s="11" t="s">
         <v>211</v>
       </c>
       <c r="AO99" t="b">
@@ -6810,7 +7225,7 @@
       </c>
     </row>
     <row r="100" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="13" t="s">
+      <c r="C100" s="11" t="s">
         <v>210</v>
       </c>
       <c r="V100" s="1" t="s">
@@ -6821,7 +7236,7 @@
       </c>
     </row>
     <row r="101" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="13" t="s">
+      <c r="C101" s="11" t="s">
         <v>210</v>
       </c>
       <c r="V101" s="1" t="s">
@@ -6832,7 +7247,7 @@
       </c>
     </row>
     <row r="102" spans="1:44" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="13" t="s">
+      <c r="C102" s="11" t="s">
         <v>209</v>
       </c>
       <c r="V102" s="9" t="s">
@@ -6846,57 +7261,65 @@
       </c>
     </row>
     <row r="103" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="23" t="s">
         <v>595</v>
       </c>
-      <c r="C103" s="13" t="s">
+      <c r="C103" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="R103" s="2" t="s">
+      <c r="R103" s="22" t="s">
         <v>597</v>
       </c>
-      <c r="T103" t="s">
+      <c r="S103" s="23"/>
+      <c r="T103" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="U103" t="s">
+      <c r="U103" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="V103" t="s">
+      <c r="V103" s="23" t="s">
         <v>594</v>
       </c>
-      <c r="Z103" t="s">
+      <c r="W103" s="23"/>
+      <c r="X103" s="23"/>
+      <c r="Y103" s="23"/>
+      <c r="Z103" s="23" t="s">
         <v>596</v>
       </c>
-      <c r="AA103" t="s">
+      <c r="AA103" s="23" t="s">
         <v>594</v>
       </c>
-      <c r="AB103" t="s">
+      <c r="AB103" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="AD103" t="s">
+      <c r="AC103" s="23"/>
+      <c r="AD103" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AE103" t="s">
+      <c r="AE103" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="AF103" t="s">
+      <c r="AF103" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AG103" t="s">
+      <c r="AG103" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AI103" t="s">
+      <c r="AH103" s="23"/>
+      <c r="AI103" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="AO103" t="b">
+      <c r="AO103" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="AR103" t="s">
+      <c r="AP103" s="23"/>
+      <c r="AQ103" s="23"/>
+      <c r="AR103" s="23" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="104" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C104" s="13" t="s">
+      <c r="C104" s="11" t="s">
         <v>207</v>
       </c>
       <c r="AO104" t="b">
@@ -6907,7 +7330,7 @@
       </c>
     </row>
     <row r="105" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C105" s="13" t="s">
+      <c r="C105" s="11" t="s">
         <v>206</v>
       </c>
       <c r="AO105" t="s">
@@ -6915,7 +7338,7 @@
       </c>
     </row>
     <row r="106" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C106" s="13" t="s">
+      <c r="C106" s="11" t="s">
         <v>205</v>
       </c>
       <c r="AO106" t="b">
@@ -6926,7 +7349,7 @@
       </c>
     </row>
     <row r="107" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C107" s="13" t="s">
+      <c r="C107" s="11" t="s">
         <v>204</v>
       </c>
       <c r="AO107" t="b">
@@ -6937,7 +7360,7 @@
       </c>
     </row>
     <row r="108" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C108" s="13" t="s">
+      <c r="C108" s="11" t="s">
         <v>203</v>
       </c>
       <c r="V108" s="1" t="s">
@@ -6948,7 +7371,7 @@
       </c>
     </row>
     <row r="109" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C109" s="13" t="s">
+      <c r="C109" s="11" t="s">
         <v>203</v>
       </c>
       <c r="V109" s="1" t="s">
@@ -6959,160 +7382,182 @@
       </c>
     </row>
     <row r="110" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="23" t="s">
         <v>603</v>
       </c>
-      <c r="C110" s="13" t="s">
+      <c r="C110" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="R110" s="2" t="s">
+      <c r="R110" s="22" t="s">
         <v>600</v>
       </c>
-      <c r="T110" t="s">
+      <c r="S110" s="23"/>
+      <c r="T110" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="U110" t="s">
+      <c r="U110" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="V110" s="1" t="s">
+      <c r="V110" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="X110" t="s">
+      <c r="W110" s="23"/>
+      <c r="X110" s="23" t="s">
         <v>602</v>
       </c>
-      <c r="Z110" t="s">
+      <c r="Y110" s="23"/>
+      <c r="Z110" s="23" t="s">
         <v>599</v>
       </c>
-      <c r="AA110" s="1" t="s">
+      <c r="AA110" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AB110" t="s">
+      <c r="AB110" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="AD110" t="s">
+      <c r="AC110" s="23"/>
+      <c r="AD110" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AE110" t="s">
+      <c r="AE110" s="23" t="s">
         <v>601</v>
       </c>
-      <c r="AF110" t="s">
+      <c r="AF110" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AG110" t="s">
+      <c r="AG110" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AI110" t="s">
+      <c r="AH110" s="23"/>
+      <c r="AI110" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="AO110" t="b">
+      <c r="AO110" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="AR110" t="s">
+      <c r="AP110" s="23"/>
+      <c r="AQ110" s="23"/>
+      <c r="AR110" s="23" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="111" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="23" t="s">
         <v>585</v>
       </c>
-      <c r="C111" s="13" t="s">
+      <c r="C111" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="R111" s="2" t="s">
+      <c r="R111" s="22" t="s">
         <v>588</v>
       </c>
-      <c r="T111" t="s">
+      <c r="S111" s="23"/>
+      <c r="T111" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="U111" t="s">
+      <c r="U111" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="V111" t="s">
+      <c r="V111" s="23" t="s">
         <v>586</v>
       </c>
-      <c r="Z111" t="s">
+      <c r="W111" s="23"/>
+      <c r="X111" s="23"/>
+      <c r="Y111" s="23"/>
+      <c r="Z111" s="23" t="s">
         <v>587</v>
       </c>
-      <c r="AA111" t="s">
+      <c r="AA111" s="23" t="s">
         <v>584</v>
       </c>
-      <c r="AB111" t="s">
+      <c r="AB111" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="AD111" t="s">
+      <c r="AC111" s="23"/>
+      <c r="AD111" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AE111" s="7" t="s">
+      <c r="AE111" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="AF111" s="1" t="s">
+      <c r="AF111" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="AG111" s="1" t="s">
+      <c r="AG111" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="AI111" t="s">
+      <c r="AH111" s="23"/>
+      <c r="AI111" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="AO111" s="1" t="b">
+      <c r="AO111" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="AR111" t="s">
+      <c r="AP111" s="23"/>
+      <c r="AQ111" s="23"/>
+      <c r="AR111" s="23" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="112" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C112" s="13" t="s">
+      <c r="C112" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="R112" s="2" t="s">
+      <c r="R112" s="22" t="s">
         <v>502</v>
       </c>
-      <c r="U112" s="1" t="s">
+      <c r="S112" s="23"/>
+      <c r="T112" s="23"/>
+      <c r="U112" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="V112" s="1" t="s">
+      <c r="V112" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="X112" t="s">
+      <c r="W112" s="23"/>
+      <c r="X112" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="AA112" t="s">
+      <c r="Y112" s="23"/>
+      <c r="Z112" s="23"/>
+      <c r="AA112" s="23" t="s">
         <v>489</v>
       </c>
-      <c r="AB112" t="s">
+      <c r="AB112" s="23" t="s">
         <v>488</v>
       </c>
-      <c r="AC112" t="s">
+      <c r="AC112" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="AD112" t="s">
+      <c r="AD112" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AE112" s="6" t="s">
+      <c r="AE112" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="AF112" t="s">
+      <c r="AF112" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AG112" t="s">
+      <c r="AG112" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AI112" t="s">
+      <c r="AH112" s="23"/>
+      <c r="AI112" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="AO112" s="1" t="b">
+      <c r="AO112" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="AQ112" t="s">
+      <c r="AP112" s="23"/>
+      <c r="AQ112" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="AR112" t="s">
+      <c r="AR112" s="23" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="113" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="13" t="s">
+      <c r="C113" s="11" t="s">
         <v>199</v>
       </c>
       <c r="V113" s="1" t="s">
@@ -7126,7 +7571,7 @@
       </c>
     </row>
     <row r="114" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C114" s="13" t="s">
+      <c r="C114" s="11" t="s">
         <v>198</v>
       </c>
       <c r="U114" t="s">
@@ -7149,57 +7594,64 @@
       </c>
     </row>
     <row r="115" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C115" s="13" t="s">
+      <c r="C115" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="R115" s="2" t="s">
+      <c r="R115" s="22" t="s">
         <v>502</v>
       </c>
-      <c r="U115" s="1" t="s">
+      <c r="S115" s="23"/>
+      <c r="T115" s="23"/>
+      <c r="U115" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="V115" s="1" t="s">
+      <c r="V115" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="X115" t="s">
+      <c r="W115" s="23"/>
+      <c r="X115" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="AA115" t="s">
+      <c r="Y115" s="23"/>
+      <c r="Z115" s="23"/>
+      <c r="AA115" s="23" t="s">
         <v>489</v>
       </c>
-      <c r="AB115" t="s">
+      <c r="AB115" s="23" t="s">
         <v>488</v>
       </c>
-      <c r="AC115" t="s">
+      <c r="AC115" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="AD115" t="s">
+      <c r="AD115" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AE115" s="6" t="s">
+      <c r="AE115" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="AF115" t="s">
+      <c r="AF115" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AG115" t="s">
+      <c r="AG115" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AI115" t="s">
+      <c r="AH115" s="23"/>
+      <c r="AI115" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="AO115" s="1" t="b">
+      <c r="AO115" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="AQ115" t="s">
+      <c r="AP115" s="23"/>
+      <c r="AQ115" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="AR115" t="s">
+      <c r="AR115" s="23" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="116" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C116" s="13" t="s">
+      <c r="C116" s="11" t="s">
         <v>196</v>
       </c>
       <c r="AO116" t="b">
@@ -7210,7 +7662,7 @@
       </c>
     </row>
     <row r="117" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C117" s="13" t="s">
+      <c r="C117" s="11" t="s">
         <v>195</v>
       </c>
       <c r="V117" s="1" t="s">
@@ -7224,7 +7676,7 @@
       </c>
     </row>
     <row r="118" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C118" s="13" t="s">
+      <c r="C118" s="11" t="s">
         <v>194</v>
       </c>
       <c r="V118" s="1" t="s">
@@ -7238,7 +7690,7 @@
       </c>
     </row>
     <row r="119" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C119" s="13" t="s">
+      <c r="C119" s="11" t="s">
         <v>193</v>
       </c>
       <c r="AO119" t="s">
@@ -7246,7 +7698,7 @@
       </c>
     </row>
     <row r="120" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C120" s="13" t="s">
+      <c r="C120" s="11" t="s">
         <v>192</v>
       </c>
       <c r="AO120" t="s">
@@ -7254,57 +7706,65 @@
       </c>
     </row>
     <row r="121" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C121" s="13" t="s">
+      <c r="A121" s="12"/>
+      <c r="C121" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="R121" s="2" t="s">
+      <c r="R121" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="U121" s="1" t="s">
+      <c r="S121" s="12"/>
+      <c r="T121" s="12"/>
+      <c r="U121" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="V121" s="1" t="s">
+      <c r="V121" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="X121" t="s">
+      <c r="W121" s="12"/>
+      <c r="X121" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="AA121" t="s">
+      <c r="Y121" s="12"/>
+      <c r="Z121" s="12"/>
+      <c r="AA121" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="AB121" t="s">
+      <c r="AB121" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="AC121" t="s">
+      <c r="AC121" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="AD121" t="s">
+      <c r="AD121" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AE121" s="6" t="s">
+      <c r="AE121" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="AF121" t="s">
+      <c r="AF121" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AG121" t="s">
+      <c r="AG121" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AI121" t="s">
+      <c r="AH121" s="12"/>
+      <c r="AI121" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AO121" s="1" t="b">
+      <c r="AO121" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AQ121" t="s">
+      <c r="AP121" s="12"/>
+      <c r="AQ121" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="AR121" t="s">
+      <c r="AR121" s="12" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="122" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C122" s="13" t="s">
+      <c r="C122" s="11" t="s">
         <v>190</v>
       </c>
       <c r="AO122" t="b">
@@ -7315,10 +7775,10 @@
       </c>
     </row>
     <row r="123" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="C123" s="13" t="s">
+      <c r="C123" s="19" t="s">
         <v>189</v>
       </c>
       <c r="D123" t="s">
@@ -7327,54 +7787,62 @@
       <c r="E123" t="s">
         <v>363</v>
       </c>
-      <c r="R123" s="2" t="s">
+      <c r="R123" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="T123" s="1" t="s">
+      <c r="S123" s="12"/>
+      <c r="T123" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="U123" t="s">
+      <c r="U123" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="V123" s="1" t="s">
+      <c r="V123" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="Z123" t="s">
+      <c r="W123" s="12"/>
+      <c r="X123" s="12"/>
+      <c r="Y123" s="12"/>
+      <c r="Z123" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="AA123" t="s">
+      <c r="AA123" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="AB123" t="s">
+      <c r="AB123" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AD123" t="s">
+      <c r="AC123" s="12"/>
+      <c r="AD123" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AE123" t="s">
+      <c r="AE123" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AF123" s="1" t="s">
+      <c r="AF123" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="AG123" t="s">
+      <c r="AG123" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AI123" t="s">
+      <c r="AH123" s="12"/>
+      <c r="AI123" s="12" t="s">
         <v>141</v>
       </c>
       <c r="AJ123" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AO123" t="b">
+      <c r="AO123" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="AR123" t="s">
+      <c r="AP123" s="12"/>
+      <c r="AQ123" s="12"/>
+      <c r="AR123" s="12" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="124" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C124" s="13" t="s">
+      <c r="C124" s="11" t="s">
         <v>188</v>
       </c>
       <c r="V124" s="1" t="s">
@@ -7388,7 +7856,7 @@
       </c>
     </row>
     <row r="125" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C125" s="13" t="s">
+      <c r="C125" s="11" t="s">
         <v>187</v>
       </c>
       <c r="V125" s="1" t="s">
@@ -7402,7 +7870,7 @@
       </c>
     </row>
     <row r="126" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C126" s="13" t="s">
+      <c r="C126" s="11" t="s">
         <v>186</v>
       </c>
       <c r="V126" s="1"/>
@@ -7414,7 +7882,7 @@
       </c>
     </row>
     <row r="127" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C127" s="13" t="s">
+      <c r="C127" s="11" t="s">
         <v>185</v>
       </c>
       <c r="V127" s="1" t="s">
@@ -7428,7 +7896,7 @@
       </c>
     </row>
     <row r="128" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C128" s="13" t="s">
+      <c r="C128" s="11" t="s">
         <v>184</v>
       </c>
       <c r="V128" s="1" t="s">
@@ -7442,7 +7910,7 @@
       </c>
     </row>
     <row r="129" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C129" s="13" t="s">
+      <c r="C129" s="11" t="s">
         <v>183</v>
       </c>
       <c r="AO129" t="b">
@@ -7453,7 +7921,7 @@
       </c>
     </row>
     <row r="130" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C130" s="13" t="s">
+      <c r="C130" s="11" t="s">
         <v>182</v>
       </c>
       <c r="AD130" t="s">
@@ -7464,7 +7932,7 @@
       </c>
     </row>
     <row r="131" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C131" s="13" t="s">
+      <c r="C131" s="11" t="s">
         <v>181</v>
       </c>
       <c r="AO131" t="b">
@@ -7472,7 +7940,7 @@
       </c>
     </row>
     <row r="132" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C132" s="13" t="s">
+      <c r="C132" s="11" t="s">
         <v>180</v>
       </c>
       <c r="V132" s="1" t="s">
@@ -7486,7 +7954,7 @@
       </c>
     </row>
     <row r="133" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C133" s="13" t="s">
+      <c r="C133" s="11" t="s">
         <v>179</v>
       </c>
       <c r="AO133" t="b">
@@ -7497,7 +7965,7 @@
       </c>
     </row>
     <row r="134" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C134" s="13" t="s">
+      <c r="C134" s="11" t="s">
         <v>178</v>
       </c>
       <c r="AO134" t="b">
@@ -7508,7 +7976,7 @@
       </c>
     </row>
     <row r="135" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C135" s="13" t="s">
+      <c r="C135" s="11" t="s">
         <v>177</v>
       </c>
       <c r="V135" s="1" t="s">
@@ -7522,7 +7990,7 @@
       </c>
     </row>
     <row r="136" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C136" s="13" t="s">
+      <c r="C136" s="11" t="s">
         <v>176</v>
       </c>
       <c r="V136" s="1" t="s">
@@ -7536,7 +8004,7 @@
       </c>
     </row>
     <row r="137" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C137" s="13" t="s">
+      <c r="C137" s="11" t="s">
         <v>175</v>
       </c>
       <c r="AD137" t="s">
@@ -7550,52 +8018,60 @@
       </c>
     </row>
     <row r="138" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="A138" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="C138" s="13" t="s">
+      <c r="C138" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="R138" s="2" t="s">
+      <c r="R138" s="13" t="s">
         <v>609</v>
       </c>
-      <c r="T138" t="s">
+      <c r="S138" s="12"/>
+      <c r="T138" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="V138" s="1" t="s">
+      <c r="U138" s="12"/>
+      <c r="V138" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="AA138" t="s">
+      <c r="W138" s="12"/>
+      <c r="X138" s="12"/>
+      <c r="Y138" s="12"/>
+      <c r="Z138" s="12"/>
+      <c r="AA138" s="12" t="s">
         <v>612</v>
       </c>
-      <c r="AB138" t="s">
+      <c r="AB138" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="AC138" t="s">
+      <c r="AC138" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="AD138" t="s">
+      <c r="AD138" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AE138" s="6" t="s">
+      <c r="AE138" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="AF138" t="s">
+      <c r="AF138" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AG138" t="s">
+      <c r="AG138" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AI138" t="s">
+      <c r="AH138" s="12"/>
+      <c r="AI138" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AO138" t="b">
+      <c r="AO138" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="AQ138" t="s">
+      <c r="AP138" s="12"/>
+      <c r="AQ138" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="AR138" t="s">
+      <c r="AR138" s="12" t="s">
         <v>630</v>
       </c>
     </row>
@@ -7606,7 +8082,7 @@
       <c r="B139" t="s">
         <v>45</v>
       </c>
-      <c r="C139" s="13" t="s">
+      <c r="C139" s="11" t="s">
         <v>173</v>
       </c>
       <c r="D139" t="s">
@@ -7656,13 +8132,13 @@
       </c>
     </row>
     <row r="140" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" s="12" t="s">
         <v>259</v>
       </c>
       <c r="B140" t="s">
         <v>45</v>
       </c>
-      <c r="C140" s="13" t="s">
+      <c r="C140" s="19" t="s">
         <v>172</v>
       </c>
       <c r="D140" t="s">
@@ -7680,51 +8156,59 @@
       <c r="H140">
         <v>1370</v>
       </c>
-      <c r="R140" s="2" t="s">
+      <c r="R140" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="T140" t="s">
+      <c r="S140" s="12"/>
+      <c r="T140" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="U140" t="s">
+      <c r="U140" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="V140" t="s">
+      <c r="V140" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Z140" t="s">
+      <c r="W140" s="12"/>
+      <c r="X140" s="12"/>
+      <c r="Y140" s="12"/>
+      <c r="Z140" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="AA140" t="s">
+      <c r="AA140" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="AB140" t="s">
+      <c r="AB140" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AD140" t="s">
+      <c r="AC140" s="12"/>
+      <c r="AD140" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AE140" t="s">
+      <c r="AE140" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AF140" s="1" t="s">
+      <c r="AF140" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="AG140" s="1" t="s">
+      <c r="AG140" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="AI140" t="s">
+      <c r="AH140" s="12"/>
+      <c r="AI140" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="AO140" t="b">
+      <c r="AO140" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="AR140" t="s">
+      <c r="AP140" s="12"/>
+      <c r="AQ140" s="12"/>
+      <c r="AR140" s="12" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="141" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C141" s="13" t="s">
+      <c r="C141" s="11" t="s">
         <v>171</v>
       </c>
       <c r="AO141" t="b">
@@ -7735,7 +8219,7 @@
       </c>
     </row>
     <row r="142" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C142" s="13" t="s">
+      <c r="C142" s="11" t="s">
         <v>170</v>
       </c>
       <c r="AO142" s="8" t="s">
@@ -7743,7 +8227,7 @@
       </c>
     </row>
     <row r="143" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C143" s="13" t="s">
+      <c r="C143" s="11" t="s">
         <v>169</v>
       </c>
       <c r="AO143" t="b">
@@ -7757,7 +8241,7 @@
       </c>
     </row>
     <row r="144" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C144" s="13" t="s">
+      <c r="C144" s="11" t="s">
         <v>168</v>
       </c>
       <c r="U144" s="1" t="s">
@@ -7801,57 +8285,65 @@
       </c>
     </row>
     <row r="145" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C145" s="13" t="s">
+      <c r="A145" s="12"/>
+      <c r="C145" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="R145" s="2" t="s">
+      <c r="R145" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="U145" s="1" t="s">
+      <c r="S145" s="12"/>
+      <c r="T145" s="12"/>
+      <c r="U145" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="V145" s="1" t="s">
+      <c r="V145" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="X145" t="s">
+      <c r="W145" s="12"/>
+      <c r="X145" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="AA145" t="s">
+      <c r="Y145" s="12"/>
+      <c r="Z145" s="12"/>
+      <c r="AA145" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="AB145" t="s">
+      <c r="AB145" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="AC145" t="s">
+      <c r="AC145" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="AD145" t="s">
+      <c r="AD145" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AE145" s="6" t="s">
+      <c r="AE145" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="AF145" t="s">
+      <c r="AF145" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AG145" t="s">
+      <c r="AG145" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AI145" t="s">
+      <c r="AH145" s="12"/>
+      <c r="AI145" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AO145" t="b">
+      <c r="AO145" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="AQ145" t="s">
+      <c r="AP145" s="12"/>
+      <c r="AQ145" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="AR145" t="s">
+      <c r="AR145" s="12" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="146" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C146" s="13" t="s">
+      <c r="C146" s="11" t="s">
         <v>166</v>
       </c>
       <c r="AO146" t="b">
@@ -7862,13 +8354,13 @@
       </c>
     </row>
     <row r="147" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="A147" s="12" t="s">
         <v>253</v>
       </c>
       <c r="B147" t="s">
         <v>45</v>
       </c>
-      <c r="C147" s="13" t="s">
+      <c r="C147" s="19" t="s">
         <v>165</v>
       </c>
       <c r="D147" t="s">
@@ -7886,109 +8378,156 @@
       <c r="H147" s="1">
         <v>3467</v>
       </c>
-      <c r="R147" s="2" t="s">
+      <c r="R147" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="T147" t="s">
+      <c r="S147" s="12"/>
+      <c r="T147" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="U147" s="1" t="s">
+      <c r="U147" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="V147" s="1" t="s">
+      <c r="V147" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="W147" t="s">
+      <c r="W147" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="Z147" t="s">
+      <c r="X147" s="12"/>
+      <c r="Y147" s="12"/>
+      <c r="Z147" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="AA147" t="s">
+      <c r="AA147" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="AB147" t="s">
+      <c r="AB147" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="AD147" t="s">
+      <c r="AC147" s="12"/>
+      <c r="AD147" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AE147" s="7" t="s">
+      <c r="AE147" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="AF147" s="1" t="s">
+      <c r="AF147" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AG147" s="1" t="s">
+      <c r="AG147" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AI147" t="s">
+      <c r="AH147" s="12"/>
+      <c r="AI147" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="AO147" t="b">
+      <c r="AO147" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="AP147" t="s">
+      <c r="AP147" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AR147" t="s">
+      <c r="AQ147" s="12"/>
+      <c r="AR147" s="12" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="148" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="A148" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="C148" s="13" t="s">
+      <c r="C148" s="19" t="s">
         <v>561</v>
       </c>
-      <c r="R148" s="2" t="s">
+      <c r="R148" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="T148" t="s">
+      <c r="S148" s="12"/>
+      <c r="T148" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="U148" t="s">
+      <c r="U148" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="V148" t="s">
+      <c r="V148" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="W148" t="s">
+      <c r="W148" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="Z148" t="s">
+      <c r="X148" s="12"/>
+      <c r="Y148" s="12"/>
+      <c r="Z148" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="AA148" t="s">
+      <c r="AA148" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="AB148" t="s">
+      <c r="AB148" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AD148" t="s">
+      <c r="AC148" s="12"/>
+      <c r="AD148" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AE148" s="7" t="s">
+      <c r="AE148" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="AF148" s="1" t="s">
+      <c r="AF148" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AG148" s="1" t="s">
+      <c r="AG148" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AI148" t="s">
+      <c r="AH148" s="12"/>
+      <c r="AI148" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="AO148" t="b">
+      <c r="AO148" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="AP148" t="s">
+      <c r="AP148" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AQ148" t="s">
+      <c r="AQ148" s="12" t="s">
         <v>567</v>
+      </c>
+      <c r="AR148" s="12"/>
+    </row>
+    <row r="152" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="T152" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="153" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="T153" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="154" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="T154" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="155" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="T155" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="156" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="T156" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="157" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="T157" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="158" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="T158" t="s">
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -8046,7 +8585,7 @@
     <hyperlink ref="R60" r:id="rId43" xr:uid="{42BC5E7A-584B-A04D-ACF0-1475718F31B2}"/>
     <hyperlink ref="R62" r:id="rId44" display="https://doi.org/10.1177%2F0959683619831433" xr:uid="{E39B816E-33F5-704B-A358-C51CBF362313}"/>
     <hyperlink ref="R69" r:id="rId45" display="https://doi.org/10.1177%2F0959683619831433" xr:uid="{CE06C4E5-B48D-8947-A3B4-1C8D751F9EFC}"/>
-    <hyperlink ref="R123" r:id="rId46" display="https://doi.org/10.1177%2F0959683619831433" xr:uid="{601399AE-B865-6A4F-BE2C-B5C7B724ECA1}"/>
+    <hyperlink ref="R123" r:id="rId46" xr:uid="{601399AE-B865-6A4F-BE2C-B5C7B724ECA1}"/>
     <hyperlink ref="R63" r:id="rId47" xr:uid="{0BF49E46-ADF6-7447-886C-2A90A8C2C87D}"/>
     <hyperlink ref="R64" r:id="rId48" xr:uid="{E1633FEE-E734-A348-9A1B-22223CAA0E5A}"/>
     <hyperlink ref="R65" r:id="rId49" xr:uid="{AB8F85AE-FE80-854B-B7FC-CEEC437EF8E8}"/>
@@ -8083,6 +8622,7 @@
     <hyperlink ref="R9" r:id="rId80" xr:uid="{003E70FC-1DAC-4549-8415-10DD9E5BF4B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId81"/>
 </worksheet>
 </file>
 
@@ -8090,8 +8630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A898649-569A-4432-B840-FC8BA0D92C37}">
   <dimension ref="A3:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Data/Proxy/NewFileEditsSummary.xlsx
+++ b/Data/Proxy/NewFileEditsSummary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clh624\Desktop\HoloceneHydroclimate\Data\Proxy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/zResearch/Manuscript/2021_HoloceneHydroclimate/2021_HoloceneHydroclimate/Data/Proxy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62789190-421F-483E-933D-1EBCB9C6411F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298A5BA1-EF66-BB4B-AB23-3959540110AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="2670" windowWidth="15075" windowHeight="10635" xr2:uid="{DB19487E-6E10-C044-8919-5786AACFCB58}"/>
+    <workbookView xWindow="4180" yWindow="500" windowWidth="23320" windowHeight="14720" xr2:uid="{DB19487E-6E10-C044-8919-5786AACFCB58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1995,7 +1995,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2044,63 +2044,18 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
-      <color theme="2"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="2"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="2"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0" tint="-0.14999847407452621"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="0" tint="-0.14999847407452621"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.14999847407452621"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2130,37 +2085,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2480,21 +2427,24 @@
   <dimension ref="A1:AU158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="R45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="R68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T77" sqref="T77"/>
+      <selection pane="bottomRight" activeCell="R161" sqref="R161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="11" style="10"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="40.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.83203125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="35" width="11" style="10"/>
     <col min="36" max="40" width="0" hidden="1" customWidth="1"/>
+    <col min="41" max="16384" width="11" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2633,14 +2583,14 @@
       <c r="AT1" s="4"/>
       <c r="AU1" s="4"/>
     </row>
-    <row r="2" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>67</v>
       </c>
       <c r="D2" t="s">
@@ -2649,77 +2599,60 @@
       <c r="E2" t="s">
         <v>66</v>
       </c>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="Z2" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AA2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AB2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AD2" s="12" t="s">
+      <c r="AD2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE2" s="12" t="s">
+      <c r="AE2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AF2" s="12" t="s">
+      <c r="AF2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AG2" s="12" t="s">
+      <c r="AG2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AJ2"/>
-      <c r="AK2"/>
-      <c r="AL2"/>
-      <c r="AM2"/>
-      <c r="AN2"/>
-      <c r="AO2" s="12" t="b">
+      <c r="AO2" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP2" s="12" t="s">
+      <c r="AP2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AQ2" s="12" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D3" t="s">
@@ -2728,148 +2661,110 @@
       <c r="E3" t="s">
         <v>47</v>
       </c>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="U3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="W3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="Z3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AA3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AB3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AD3" s="12" t="s">
+      <c r="AD3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AE3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AF3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="AG3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AJ3"/>
-      <c r="AK3"/>
-      <c r="AL3"/>
-      <c r="AM3"/>
-      <c r="AN3"/>
-      <c r="AO3" s="12" t="b">
+      <c r="AO3" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP3" s="12" t="s">
+      <c r="AP3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AQ3" s="12" t="s">
+      <c r="AQ3" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="B4"/>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4" s="13" t="s">
+      <c r="R4" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="T4" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="U4" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="V4" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="W4" s="12" t="s">
+      <c r="W4" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="Z4" s="12" t="s">
+      <c r="Z4" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AA4" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="AB4" s="14" t="s">
+      <c r="AB4" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="AD4" s="12" t="s">
+      <c r="AD4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE4" s="12" t="s">
+      <c r="AE4" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="AF4" s="12" t="s">
+      <c r="AF4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AG4" s="12" t="s">
+      <c r="AG4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AI4" s="15" t="s">
+      <c r="AI4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AJ4"/>
-      <c r="AK4"/>
-      <c r="AL4"/>
-      <c r="AM4"/>
-      <c r="AN4"/>
-      <c r="AO4" s="15" t="b">
+      <c r="AO4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AP4" s="15" t="s">
+      <c r="AP4" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B5"/>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>290</v>
       </c>
       <c r="D5" t="s">
@@ -2887,75 +2782,60 @@
       <c r="H5">
         <v>-1211</v>
       </c>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="T5" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="U5" s="12" t="s">
+      <c r="U5" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="V5" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="W5" s="12" t="s">
+      <c r="W5" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" s="12" t="s">
+      <c r="Z5" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="AA5" s="12" t="s">
+      <c r="AA5" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="AB5" s="12" t="s">
+      <c r="AB5" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AD5" s="12" t="s">
+      <c r="AD5" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE5" s="12" t="s">
+      <c r="AE5" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="AF5" s="12" t="s">
+      <c r="AF5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AG5" s="12" t="s">
+      <c r="AG5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AI5" s="15" t="s">
+      <c r="AI5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AJ5"/>
-      <c r="AK5"/>
-      <c r="AL5"/>
-      <c r="AM5"/>
-      <c r="AN5"/>
-      <c r="AO5" s="15" t="b">
+      <c r="AO5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AP5" s="15" t="s">
+      <c r="AP5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AQ5" s="12" t="s">
+      <c r="AQ5" s="10" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="B6"/>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>281</v>
       </c>
       <c r="D6" t="s">
@@ -2973,145 +2853,111 @@
       <c r="H6">
         <v>5</v>
       </c>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6" s="13" t="s">
+      <c r="R6" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="U6" s="12" t="s">
+      <c r="U6" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="V6" s="12" t="s">
+      <c r="V6" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="W6" s="12" t="s">
+      <c r="W6" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="Z6" s="12" t="s">
+      <c r="Z6" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="AA6" s="12" t="s">
+      <c r="AA6" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="AB6" s="12" t="s">
+      <c r="AB6" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="AD6" s="12" t="s">
+      <c r="AD6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE6" s="12" t="s">
+      <c r="AE6" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AF6" s="12" t="s">
+      <c r="AF6" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="AG6" s="12" t="s">
+      <c r="AG6" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AI6" s="15" t="s">
+      <c r="AI6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AJ6"/>
-      <c r="AK6"/>
-      <c r="AL6"/>
-      <c r="AM6"/>
-      <c r="AN6"/>
-      <c r="AO6" s="15" t="b">
+      <c r="AO6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AP6" s="15" t="s">
+      <c r="AP6" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="B7"/>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7" s="13" t="s">
+      <c r="R7" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="T7" s="15" t="s">
+      <c r="T7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="U7" s="12" t="s">
+      <c r="U7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="V7" s="15" t="s">
+      <c r="V7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Z7" s="12" t="s">
+      <c r="Z7" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="AA7" s="12" t="s">
+      <c r="AA7" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="AB7" s="12" t="s">
+      <c r="AB7" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="AC7" s="12" t="s">
+      <c r="AC7" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AD7" s="12" t="s">
+      <c r="AD7" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE7" s="15" t="s">
+      <c r="AE7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AF7" s="15" t="s">
+      <c r="AF7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG7" s="15" t="s">
+      <c r="AG7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AI7" s="15" t="s">
+      <c r="AI7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AJ7"/>
-      <c r="AK7"/>
-      <c r="AL7"/>
-      <c r="AM7"/>
-      <c r="AN7"/>
-      <c r="AO7" s="15" t="b">
+      <c r="AO7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AP7" s="15"/>
-    </row>
-    <row r="8" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="AP7" s="1"/>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -3156,52 +3002,52 @@
       <c r="Q8" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="R8" s="13" t="s">
+      <c r="R8" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15" t="s">
+      <c r="S8" s="1"/>
+      <c r="T8" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="U8" s="15" t="s">
+      <c r="U8" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="V8" s="15" t="s">
+      <c r="V8" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="W8" s="15" t="s">
+      <c r="W8" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15" t="s">
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AA8" s="15" t="s">
+      <c r="AA8" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AB8" s="20" t="s">
+      <c r="AB8" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AC8" s="15" t="s">
+      <c r="AC8" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AD8" s="15" t="s">
+      <c r="AD8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AE8" s="15" t="s">
+      <c r="AE8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AF8" s="15" t="s">
+      <c r="AF8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG8" s="15" t="s">
+      <c r="AG8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AH8" s="15">
+      <c r="AH8" s="1">
         <v>0.1410303712</v>
       </c>
-      <c r="AI8" s="15" t="s">
+      <c r="AI8" s="1" t="s">
         <v>125</v>
       </c>
       <c r="AJ8" s="1">
@@ -3215,22 +3061,22 @@
       </c>
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
-      <c r="AO8" s="15" t="b">
+      <c r="AO8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AP8" s="15" t="s">
+      <c r="AP8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AQ8" s="15" t="s">
+      <c r="AQ8" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>629</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="1" t="s">
         <v>625</v>
       </c>
       <c r="D9" s="1"/>
@@ -3247,48 +3093,48 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="13" t="s">
+      <c r="R9" s="11" t="s">
         <v>626</v>
       </c>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15" t="s">
+      <c r="S9" s="1"/>
+      <c r="T9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="U9" s="15" t="s">
+      <c r="U9" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="V9" s="15" t="s">
+      <c r="V9" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="W9" s="15" t="s">
+      <c r="W9" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15" t="s">
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="AA9" s="15" t="s">
+      <c r="AA9" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="AB9" s="12" t="s">
+      <c r="AB9" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15" t="s">
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AE9" s="15" t="s">
+      <c r="AE9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AF9" s="12" t="s">
+      <c r="AF9" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="AG9" s="12" t="s">
+      <c r="AG9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15" t="s">
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1" t="s">
         <v>141</v>
       </c>
       <c r="AJ9" s="1"/>
@@ -3296,22 +3142,22 @@
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
-      <c r="AO9" s="15" t="b">
+      <c r="AO9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AP9" s="15" t="s">
+      <c r="AP9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AQ9" s="15"/>
-    </row>
-    <row r="10" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="AQ9" s="1"/>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -3352,46 +3198,46 @@
         <v>118</v>
       </c>
       <c r="Q10" s="1"/>
-      <c r="R10" s="13" t="s">
+      <c r="R10" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15" t="s">
+      <c r="S10" s="1"/>
+      <c r="T10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="V10" s="15" t="s">
+      <c r="V10" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15" t="s">
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AA10" s="15" t="s">
+      <c r="AA10" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AB10" s="15" t="s">
+      <c r="AB10" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15" t="s">
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AE10" s="15" t="s">
+      <c r="AE10" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AF10" s="15" t="s">
+      <c r="AF10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG10" s="15" t="s">
+      <c r="AG10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15" t="s">
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1" t="s">
         <v>125</v>
       </c>
       <c r="AJ10" s="1"/>
@@ -3399,22 +3245,22 @@
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
-      <c r="AO10" s="15" t="b">
+      <c r="AO10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AP10" s="15" t="s">
+      <c r="AP10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AQ10" s="15" t="s">
+      <c r="AQ10" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>619</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="1" t="s">
         <v>616</v>
       </c>
       <c r="D11" s="1"/>
@@ -3431,48 +3277,48 @@
       <c r="O11" s="1"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="13" t="s">
+      <c r="R11" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15" t="s">
+      <c r="S11" s="1"/>
+      <c r="T11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="U11" s="15" t="s">
+      <c r="U11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="V11" s="12" t="s">
+      <c r="V11" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="W11" s="15" t="s">
+      <c r="W11" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15" t="s">
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="AA11" s="15" t="s">
+      <c r="AA11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AB11" s="15" t="s">
+      <c r="AB11" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15" t="s">
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AE11" s="16" t="s">
+      <c r="AE11" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="AF11" s="15" t="s">
+      <c r="AF11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AG11" s="15" t="s">
+      <c r="AG11" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15" t="s">
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1" t="s">
         <v>141</v>
       </c>
       <c r="AJ11" s="1"/>
@@ -3480,22 +3326,22 @@
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
-      <c r="AO11" s="15" t="b">
+      <c r="AO11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AP11" s="15" t="s">
+      <c r="AP11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AQ11" s="15" t="s">
+      <c r="AQ11" s="1" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>387</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>631</v>
       </c>
       <c r="D12" s="1"/>
@@ -3512,46 +3358,46 @@
       <c r="O12" s="1"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="13" t="s">
+      <c r="R12" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15" t="s">
+      <c r="S12" s="1"/>
+      <c r="T12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="U12" s="15" t="s">
+      <c r="U12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="V12" s="15" t="s">
+      <c r="V12" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15" t="s">
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="AA12" s="12" t="s">
+      <c r="AA12" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="AB12" s="15" t="s">
+      <c r="AB12" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15" t="s">
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AE12" s="16" t="s">
+      <c r="AE12" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AF12" s="15" t="s">
+      <c r="AF12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG12" s="15" t="s">
+      <c r="AG12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15" t="s">
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1" t="s">
         <v>141</v>
       </c>
       <c r="AJ12" s="1"/>
@@ -3559,25 +3405,25 @@
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
-      <c r="AO12" s="15" t="b">
+      <c r="AO12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AP12" s="15" t="s">
+      <c r="AP12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AQ12" s="15"/>
-      <c r="AR12" s="12" t="s">
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>632</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -3618,48 +3464,48 @@
         <v>133</v>
       </c>
       <c r="Q13" s="1"/>
-      <c r="R13" s="13" t="s">
+      <c r="R13" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15" t="s">
+      <c r="S13" s="1"/>
+      <c r="T13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="U13" s="15" t="s">
+      <c r="U13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="V13" s="15" t="s">
+      <c r="V13" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="W13" s="15" t="s">
+      <c r="W13" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15" t="s">
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AA13" s="15" t="s">
+      <c r="AA13" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AB13" s="15" t="s">
+      <c r="AB13" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15" t="s">
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AE13" s="15" t="s">
+      <c r="AE13" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AF13" s="15" t="s">
+      <c r="AF13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG13" s="15" t="s">
+      <c r="AG13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15" t="s">
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1" t="s">
         <v>141</v>
       </c>
       <c r="AJ13" s="1"/>
@@ -3669,23 +3515,22 @@
       </c>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
-      <c r="AO13" s="15" t="b">
+      <c r="AO13" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AP13" s="15" t="s">
+      <c r="AP13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AQ13" s="15" t="s">
+      <c r="AQ13" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AR13" s="12"/>
-    </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>578</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="1" t="s">
         <v>581</v>
       </c>
       <c r="D14" s="1"/>
@@ -3702,48 +3547,48 @@
       <c r="O14" s="1"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="13" t="s">
+      <c r="R14" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15" t="s">
+      <c r="S14" s="1"/>
+      <c r="T14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="U14" s="15" t="s">
+      <c r="U14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V14" s="15" t="s">
+      <c r="V14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15" t="s">
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="AA14" s="15" t="s">
+      <c r="AA14" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="AB14" s="12" t="s">
+      <c r="AB14" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="AC14" s="12" t="s">
+      <c r="AC14" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AD14" s="12" t="s">
+      <c r="AD14" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE14" s="15" t="s">
+      <c r="AE14" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AF14" s="15" t="s">
+      <c r="AF14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG14" s="15" t="s">
+      <c r="AG14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="12" t="s">
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="10" t="s">
         <v>125</v>
       </c>
       <c r="AJ14" s="1"/>
@@ -3751,19 +3596,18 @@
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
-      <c r="AO14" s="15" t="b">
+      <c r="AO14" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AP14" s="15"/>
-      <c r="AQ14" s="15"/>
-      <c r="AR14" s="12"/>
-    </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>579</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="1" t="s">
         <v>581</v>
       </c>
       <c r="D15" s="1"/>
@@ -3780,48 +3624,48 @@
       <c r="O15" s="1"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="13" t="s">
+      <c r="R15" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15" t="s">
+      <c r="S15" s="1"/>
+      <c r="T15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="U15" s="15" t="s">
+      <c r="U15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V15" s="15" t="s">
+      <c r="V15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15" t="s">
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="AA15" s="15" t="s">
+      <c r="AA15" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="AB15" s="12" t="s">
+      <c r="AB15" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="AC15" s="12" t="s">
+      <c r="AC15" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AD15" s="12" t="s">
+      <c r="AD15" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE15" s="15" t="s">
+      <c r="AE15" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AF15" s="15" t="s">
+      <c r="AF15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AG15" s="15" t="s">
+      <c r="AG15" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="AH15" s="15"/>
-      <c r="AI15" s="12" t="s">
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="10" t="s">
         <v>125</v>
       </c>
       <c r="AJ15" s="1"/>
@@ -3829,19 +3673,18 @@
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
-      <c r="AO15" s="15" t="b">
+      <c r="AO15" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AP15" s="15"/>
-      <c r="AQ15" s="15"/>
-      <c r="AR15" s="12"/>
-    </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>580</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="1" t="s">
         <v>581</v>
       </c>
       <c r="D16" s="1"/>
@@ -3858,48 +3701,48 @@
       <c r="O16" s="1"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="13" t="s">
+      <c r="R16" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15" t="s">
+      <c r="S16" s="1"/>
+      <c r="T16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="U16" s="15" t="s">
+      <c r="U16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V16" s="15" t="s">
+      <c r="V16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15" t="s">
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="AA16" s="15" t="s">
+      <c r="AA16" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="AB16" s="12" t="s">
+      <c r="AB16" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="AC16" s="12" t="s">
+      <c r="AC16" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AD16" s="12" t="s">
+      <c r="AD16" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE16" s="15" t="s">
+      <c r="AE16" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AF16" s="15" t="s">
+      <c r="AF16" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AG16" s="15" t="s">
+      <c r="AG16" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="AH16" s="15"/>
-      <c r="AI16" s="12" t="s">
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="10" t="s">
         <v>125</v>
       </c>
       <c r="AJ16" s="1"/>
@@ -3907,72 +3750,63 @@
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
-      <c r="AO16" s="15" t="b">
+      <c r="AO16" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AP16" s="15"/>
-      <c r="AQ16" s="15"/>
-      <c r="AR16" s="12"/>
-    </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="R17" s="13" t="s">
+      <c r="R17" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12" t="s">
+      <c r="T17" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="U17" s="12" t="s">
+      <c r="U17" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="V17" s="12" t="s">
+      <c r="V17" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12" t="s">
+      <c r="Z17" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="AA17" s="12" t="s">
+      <c r="AA17" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="AB17" s="12" t="s">
+      <c r="AB17" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="AC17" s="12" t="s">
+      <c r="AC17" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AD17" s="12" t="s">
+      <c r="AD17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE17" s="12" t="s">
+      <c r="AE17" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="AF17" s="15" t="s">
+      <c r="AF17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG17" s="15" t="s">
+      <c r="AG17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="12" t="s">
+      <c r="AI17" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AO17" s="12" t="b">
+      <c r="AO17" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP17" s="12"/>
-      <c r="AQ17" s="12"/>
-      <c r="AR17" s="12"/>
-    </row>
-    <row r="18" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>78</v>
       </c>
@@ -3983,7 +3817,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>79</v>
       </c>
@@ -3994,7 +3828,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>80</v>
       </c>
@@ -4005,11 +3839,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="10" t="s">
         <v>81</v>
       </c>
       <c r="D21" t="s">
@@ -4018,62 +3852,56 @@
       <c r="E21" t="s">
         <v>302</v>
       </c>
-      <c r="R21" s="13" t="s">
+      <c r="R21" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="S21" s="12"/>
-      <c r="T21" s="15" t="s">
+      <c r="T21" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="U21" s="15" t="s">
+      <c r="U21" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="V21" s="15" t="s">
+      <c r="V21" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12" t="s">
+      <c r="AA21" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="AB21" s="12" t="s">
+      <c r="AB21" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="AC21" s="12" t="s">
+      <c r="AC21" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AD21" s="12" t="s">
+      <c r="AD21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE21" s="12" t="s">
+      <c r="AE21" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="AF21" s="15" t="s">
+      <c r="AF21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG21" s="12" t="s">
+      <c r="AG21" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="12" t="s">
+      <c r="AI21" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AO21" s="12" t="b">
+      <c r="AO21" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP21" s="12" t="s">
+      <c r="AP21" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="AQ21" s="12" t="s">
+      <c r="AQ21" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="AR21" s="12" t="s">
+      <c r="AR21" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="22" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>82</v>
       </c>
@@ -4084,11 +3912,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="14" t="s">
         <v>83</v>
       </c>
       <c r="D23" t="s">
@@ -4097,60 +3925,60 @@
       <c r="E23" t="s">
         <v>304</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="R23" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="T23" t="s">
+      <c r="T23" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="U23" t="s">
+      <c r="U23" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="V23" t="s">
+      <c r="V23" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Z23" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AA23" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AB23" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AD23" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AE23" s="10" t="s">
         <v>287</v>
       </c>
       <c r="AF23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AG23" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AI23" t="s">
+      <c r="AI23" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AO23" t="b">
+      <c r="AO23" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP23" t="s">
+      <c r="AP23" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AQ23" t="s">
+      <c r="AQ23" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="AR23" t="s">
+      <c r="AR23" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="14" t="s">
         <v>83</v>
       </c>
       <c r="D24" t="s">
@@ -4159,60 +3987,60 @@
       <c r="E24" t="s">
         <v>304</v>
       </c>
-      <c r="R24" s="2" t="s">
+      <c r="R24" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="T24" t="s">
+      <c r="T24" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="U24" t="s">
+      <c r="U24" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="V24" t="s">
+      <c r="V24" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Z24" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AA24" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AB24" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AD24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AE24" s="10" t="s">
         <v>312</v>
       </c>
       <c r="AF24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AG24" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AI24" t="s">
+      <c r="AI24" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AO24" t="b">
+      <c r="AO24" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP24" t="s">
+      <c r="AP24" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AQ24" t="s">
+      <c r="AQ24" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="AR24" t="s">
+      <c r="AR24" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="10" t="s">
         <v>84</v>
       </c>
       <c r="D25" t="s">
@@ -4221,70 +4049,62 @@
       <c r="E25" t="s">
         <v>322</v>
       </c>
-      <c r="R25" s="13" t="s">
+      <c r="R25" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12" t="s">
+      <c r="T25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="U25" s="12" t="s">
+      <c r="U25" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="V25" s="12" t="s">
+      <c r="V25" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12" t="s">
+      <c r="Z25" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="AA25" s="12" t="s">
+      <c r="AA25" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="AB25" s="12" t="s">
+      <c r="AB25" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="12" t="s">
+      <c r="AD25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE25" s="12" t="s">
+      <c r="AE25" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="AF25" s="15" t="s">
+      <c r="AF25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG25" s="12" t="s">
+      <c r="AG25" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AH25" s="12"/>
-      <c r="AI25" s="12" t="s">
+      <c r="AI25" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AO25" s="12" t="b">
+      <c r="AO25" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP25" s="12"/>
-      <c r="AQ25" s="12"/>
-      <c r="AR25" s="12" t="s">
+      <c r="AR25" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="26" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>85</v>
       </c>
-      <c r="AO26" s="8" t="s">
+      <c r="AO26" s="7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D27" t="s">
@@ -4293,62 +4113,54 @@
       <c r="E27" t="s">
         <v>332</v>
       </c>
-      <c r="R27" s="13" t="s">
+      <c r="R27" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12" t="s">
+      <c r="T27" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="U27" s="12" t="s">
+      <c r="U27" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="V27" s="12" t="s">
+      <c r="V27" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12" t="s">
+      <c r="Z27" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="AA27" s="12" t="s">
+      <c r="AA27" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="AB27" s="12" t="s">
+      <c r="AB27" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12" t="s">
+      <c r="AD27" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE27" s="17" t="s">
+      <c r="AE27" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AF27" s="15" t="s">
+      <c r="AF27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG27" s="12" t="s">
+      <c r="AG27" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AH27" s="12"/>
-      <c r="AI27" s="12" t="s">
+      <c r="AI27" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AO27" s="12" t="b">
+      <c r="AO27" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP27" s="12"/>
-      <c r="AQ27" s="12"/>
-      <c r="AR27" s="12" t="s">
+      <c r="AR27" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D28" t="s">
@@ -4357,66 +4169,60 @@
       <c r="E28" t="s">
         <v>332</v>
       </c>
-      <c r="R28" s="13" t="s">
+      <c r="R28" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12" t="s">
+      <c r="T28" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="U28" s="12" t="s">
+      <c r="U28" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="V28" s="12" t="s">
+      <c r="V28" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12" t="s">
+      <c r="Z28" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="AA28" s="12" t="s">
+      <c r="AA28" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="AB28" s="12" t="s">
+      <c r="AB28" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12" t="s">
+      <c r="AD28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE28" s="12" t="s">
+      <c r="AE28" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="AF28" s="15" t="s">
+      <c r="AF28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG28" s="12" t="s">
+      <c r="AG28" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AH28" s="12"/>
-      <c r="AI28" s="12" t="s">
+      <c r="AI28" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AO28" s="12" t="b">
+      <c r="AO28" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP28" s="12" t="s">
+      <c r="AP28" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AQ28" s="12" t="s">
+      <c r="AQ28" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="AR28" s="12" t="s">
+      <c r="AR28" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="14" t="s">
         <v>87</v>
       </c>
       <c r="D29" t="s">
@@ -4425,50 +4231,50 @@
       <c r="E29" t="s">
         <v>332</v>
       </c>
-      <c r="R29" s="2" t="s">
+      <c r="R29" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="T29" t="s">
+      <c r="T29" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="U29" t="s">
+      <c r="U29" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="V29" t="s">
+      <c r="V29" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Z29" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AA29" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AB29" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AD29" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE29" t="s">
+      <c r="AE29" s="10" t="s">
         <v>287</v>
       </c>
       <c r="AF29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG29" t="s">
+      <c r="AG29" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AI29" t="s">
+      <c r="AI29" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AO29" t="b">
+      <c r="AO29" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AR29" t="s">
+      <c r="AR29" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="30" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>88</v>
       </c>
@@ -4478,15 +4284,15 @@
       <c r="AO30" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="AQ30" s="6" t="s">
+      <c r="AQ30" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="14" t="s">
         <v>87</v>
       </c>
       <c r="D31" t="s">
@@ -4495,56 +4301,56 @@
       <c r="E31" t="s">
         <v>332</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="R31" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="T31" t="s">
+      <c r="T31" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="U31" t="s">
+      <c r="U31" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="V31" t="s">
+      <c r="V31" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Z31" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AA31" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AB31" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="AD31" t="s">
+      <c r="AD31" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE31" t="s">
+      <c r="AE31" s="10" t="s">
         <v>287</v>
       </c>
       <c r="AF31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG31" t="s">
+      <c r="AG31" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AI31" t="s">
+      <c r="AI31" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AO31" t="b">
+      <c r="AO31" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP31" t="s">
+      <c r="AP31" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AQ31" s="6" t="s">
+      <c r="AQ31" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="AR31" t="s">
+      <c r="AR31" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="32" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>348</v>
       </c>
@@ -4596,11 +4402,11 @@
       <c r="AP32" t="s">
         <v>72</v>
       </c>
-      <c r="AQ32" s="6" t="s">
+      <c r="AQ32" s="5" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="33" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>342</v>
       </c>
@@ -4655,15 +4461,15 @@
       <c r="AP33" t="s">
         <v>72</v>
       </c>
-      <c r="AQ33" s="6" t="s">
+      <c r="AQ33" s="5" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="10" t="s">
         <v>90</v>
       </c>
       <c r="D34" t="s">
@@ -4672,65 +4478,57 @@
       <c r="E34" t="s">
         <v>358</v>
       </c>
-      <c r="R34" s="13" t="s">
+      <c r="R34" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="S34" s="12"/>
-      <c r="T34" s="15" t="s">
+      <c r="T34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="U34" s="15" t="s">
+      <c r="U34" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="V34" s="15" t="s">
+      <c r="V34" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12" t="s">
+      <c r="Z34" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="AA34" s="12" t="s">
+      <c r="AA34" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="AB34" s="12" t="s">
+      <c r="AB34" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="AC34" s="12"/>
-      <c r="AD34" s="12" t="s">
+      <c r="AD34" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE34" s="12" t="s">
+      <c r="AE34" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="AF34" s="15" t="s">
+      <c r="AF34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG34" s="12" t="s">
+      <c r="AG34" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AH34" s="12"/>
-      <c r="AI34" s="12" t="s">
+      <c r="AI34" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AO34" s="12" t="b">
+      <c r="AO34" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP34" s="12"/>
-      <c r="AQ34" s="12" t="s">
+      <c r="AQ34" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="AR34" s="12" t="s">
+      <c r="AR34" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="35" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="B35"/>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="10" t="s">
         <v>91</v>
       </c>
       <c r="D35" t="s">
@@ -4739,75 +4537,57 @@
       <c r="E35" t="s">
         <v>363</v>
       </c>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35" s="2" t="s">
+      <c r="R35" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="T35" t="s">
+      <c r="T35" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="U35" t="s">
+      <c r="U35" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="V35" s="15" t="s">
+      <c r="V35" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="Z35" s="12" t="s">
+      <c r="Z35" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="AA35" s="12" t="s">
+      <c r="AA35" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="AB35" s="12" t="s">
+      <c r="AB35" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="AC35" s="12" t="s">
+      <c r="AC35" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="AD35" s="12" t="s">
+      <c r="AD35" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE35" s="12" t="s">
+      <c r="AE35" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="AF35" s="15" t="s">
+      <c r="AF35" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AG35" s="12" t="s">
+      <c r="AG35" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AI35" s="12" t="s">
+      <c r="AI35" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AJ35"/>
-      <c r="AK35"/>
-      <c r="AL35"/>
-      <c r="AM35"/>
-      <c r="AN35"/>
-      <c r="AO35" s="12" t="b">
+      <c r="AO35" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AR35" s="12" t="s">
+      <c r="AR35" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="36" spans="1:44" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="B36"/>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="10" t="s">
         <v>91</v>
       </c>
       <c r="D36" t="s">
@@ -4816,67 +4596,50 @@
       <c r="E36" t="s">
         <v>363</v>
       </c>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36" s="13" t="s">
+      <c r="R36" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="T36" t="s">
+      <c r="T36" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="U36" t="s">
+      <c r="U36" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="V36" s="15" t="s">
+      <c r="V36" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="Z36" s="12" t="s">
+      <c r="Z36" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="AA36" s="12" t="s">
+      <c r="AA36" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="AB36" s="12" t="s">
+      <c r="AB36" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="AD36" s="12" t="s">
+      <c r="AD36" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE36" s="12" t="s">
+      <c r="AE36" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="AF36" s="15" t="s">
+      <c r="AF36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG36" s="12" t="s">
+      <c r="AG36" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AI36" s="12" t="s">
+      <c r="AI36" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AJ36"/>
-      <c r="AK36"/>
-      <c r="AL36"/>
-      <c r="AM36"/>
-      <c r="AN36"/>
-      <c r="AO36" s="12" t="b">
+      <c r="AO36" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AR36" s="12" t="s">
+      <c r="AR36" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="37" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>377</v>
       </c>
@@ -4925,26 +4688,26 @@
       <c r="AO37" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="AQ37" s="6" t="s">
+      <c r="AQ37" s="5" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="38" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>93</v>
       </c>
       <c r="AO38" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="AQ38" s="6" t="s">
+      <c r="AQ38" s="5" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="10" t="s">
         <v>383</v>
       </c>
       <c r="D39" t="s">
@@ -4953,126 +4716,113 @@
       <c r="E39" t="s">
         <v>363</v>
       </c>
-      <c r="R39" s="13" t="s">
+      <c r="R39" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="S39" s="12"/>
-      <c r="T39" s="15" t="s">
+      <c r="T39" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="U39" s="15" t="s">
+      <c r="U39" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="V39" s="15" t="s">
+      <c r="V39" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="12" t="s">
+      <c r="AA39" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AB39" s="12" t="s">
+      <c r="AB39" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="AC39" s="12" t="s">
+      <c r="AC39" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AD39" s="12" t="s">
+      <c r="AD39" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE39" s="12" t="s">
+      <c r="AE39" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="AF39" s="15" t="s">
+      <c r="AF39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG39" s="12" t="s">
+      <c r="AG39" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AH39" s="12"/>
-      <c r="AI39" s="12" t="s">
+      <c r="AI39" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AO39" s="15" t="b">
+      <c r="AO39" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AP39" s="12"/>
-      <c r="AQ39" s="12" t="s">
+      <c r="AQ39" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="AR39" s="12" t="s">
+      <c r="AR39" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="R40" s="13" t="s">
+      <c r="R40" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12" t="s">
+      <c r="T40" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="U40" s="15" t="s">
+      <c r="U40" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V40" s="15" t="s">
+      <c r="V40" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W40" s="12"/>
-      <c r="X40" s="12" t="s">
+      <c r="X40" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="Y40" s="12"/>
-      <c r="Z40" s="12"/>
-      <c r="AA40" s="12" t="s">
+      <c r="AA40" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="AB40" s="12" t="s">
+      <c r="AB40" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="AC40" s="12" t="s">
+      <c r="AC40" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AD40" s="12" t="s">
+      <c r="AD40" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE40" s="12" t="s">
+      <c r="AE40" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="AF40" s="12" t="s">
+      <c r="AF40" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AG40" s="12" t="s">
+      <c r="AG40" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AH40" s="12"/>
-      <c r="AI40" s="12" t="s">
+      <c r="AI40" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AO40" s="15" t="b">
+      <c r="AO40" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AP40" s="12"/>
-      <c r="AQ40" s="12" t="s">
+      <c r="AQ40" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="AR40" s="12" t="s">
+      <c r="AR40" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="10" t="s">
         <v>95</v>
       </c>
       <c r="D41" t="s">
@@ -5081,58 +4831,50 @@
       <c r="E41" t="s">
         <v>395</v>
       </c>
-      <c r="R41" s="13" t="s">
+      <c r="R41" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12" t="s">
+      <c r="T41" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="U41" s="12" t="s">
+      <c r="U41" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="V41" s="12" t="s">
+      <c r="V41" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="W41" s="12"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12"/>
-      <c r="Z41" s="12" t="s">
+      <c r="Z41" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="AA41" s="12" t="s">
+      <c r="AA41" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="AB41" s="12" t="s">
+      <c r="AB41" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="AC41" s="12"/>
-      <c r="AD41" s="12" t="s">
+      <c r="AD41" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE41" s="17" t="s">
+      <c r="AE41" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AF41" s="15" t="s">
+      <c r="AF41" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG41" s="12" t="s">
+      <c r="AG41" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AH41" s="12"/>
-      <c r="AI41" s="12" t="s">
+      <c r="AI41" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AO41" s="12" t="b">
+      <c r="AO41" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP41" s="12"/>
-      <c r="AQ41" s="12"/>
-      <c r="AR41" s="12" t="s">
+      <c r="AR41" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="42" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>398</v>
       </c>
@@ -5179,7 +4921,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="43" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
         <v>97</v>
       </c>
@@ -5190,7 +4932,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="44" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>423</v>
       </c>
@@ -5237,66 +4979,57 @@
         <v>414</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="10" t="s">
         <v>98</v>
       </c>
       <c r="D45" t="s">
         <v>400</v>
       </c>
-      <c r="R45" s="13" t="s">
+      <c r="R45" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="S45" s="12"/>
-      <c r="T45" s="12" t="s">
+      <c r="T45" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="U45" s="12"/>
-      <c r="V45" s="12" t="s">
+      <c r="V45" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="W45" s="12"/>
-      <c r="X45" s="12"/>
-      <c r="Y45" s="12"/>
-      <c r="Z45" s="12" t="s">
+      <c r="Z45" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="AA45" s="12" t="s">
+      <c r="AA45" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="AB45" s="12" t="s">
+      <c r="AB45" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="AC45" s="12"/>
-      <c r="AD45" s="12" t="s">
+      <c r="AD45" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE45" s="12" t="s">
+      <c r="AE45" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="AF45" s="15" t="s">
+      <c r="AF45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG45" s="12" t="s">
+      <c r="AG45" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AH45" s="12"/>
-      <c r="AI45" s="12" t="s">
+      <c r="AI45" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AO45" s="18" t="b">
+      <c r="AO45" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="AP45" s="12"/>
-      <c r="AQ45" s="12"/>
-      <c r="AR45" s="12" t="s">
+      <c r="AR45" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="46" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>421</v>
       </c>
@@ -5345,129 +5078,123 @@
       <c r="AI46" t="s">
         <v>141</v>
       </c>
-      <c r="AO46" s="8" t="b">
+      <c r="AO46" s="7" t="b">
         <v>0</v>
       </c>
       <c r="AQ46" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="10" t="s">
         <v>98</v>
       </c>
       <c r="D47" t="s">
         <v>400</v>
       </c>
-      <c r="R47" s="13" t="s">
+      <c r="R47" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="S47" s="12"/>
-      <c r="T47" s="12" t="s">
+      <c r="T47" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="U47" s="12" t="s">
+      <c r="U47" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="V47" s="12" t="s">
+      <c r="V47" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="W47" s="12" t="s">
+      <c r="W47" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="X47" s="12" t="s">
+      <c r="X47" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="Y47" s="12"/>
-      <c r="Z47" s="12" t="s">
+      <c r="Z47" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="AA47" s="12" t="s">
+      <c r="AA47" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="AB47" s="12" t="s">
+      <c r="AB47" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="AC47" s="12"/>
-      <c r="AD47" s="12" t="s">
+      <c r="AD47" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE47" s="17" t="s">
+      <c r="AE47" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AF47" s="15" t="s">
+      <c r="AF47" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG47" s="12" t="s">
+      <c r="AG47" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AH47" s="12"/>
-      <c r="AI47" s="12" t="s">
+      <c r="AI47" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AO47" s="18" t="b">
+      <c r="AO47" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="AP47" s="12"/>
-      <c r="AQ47" s="12"/>
-      <c r="AR47" s="12" t="s">
+      <c r="AR47" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="10" t="s">
         <v>98</v>
       </c>
       <c r="D48" t="s">
         <v>400</v>
       </c>
-      <c r="R48" s="2" t="s">
+      <c r="R48" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="T48" t="s">
+      <c r="T48" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="V48" t="s">
+      <c r="V48" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Z48" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AA48" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AB48" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="AD48" t="s">
+      <c r="AD48" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE48" s="7" t="s">
+      <c r="AE48" s="15" t="s">
         <v>245</v>
       </c>
       <c r="AF48" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG48" t="s">
+      <c r="AG48" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AI48" t="s">
+      <c r="AI48" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AO48" s="8" t="b">
+      <c r="AO48" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="AR48" t="s">
+      <c r="AR48" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="49" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>107</v>
       </c>
@@ -5478,7 +5205,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>99</v>
       </c>
@@ -5489,7 +5216,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="51" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>100</v>
       </c>
@@ -5500,7 +5227,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="52" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>101</v>
       </c>
@@ -5511,76 +5238,68 @@
         <v>256</v>
       </c>
     </row>
-    <row r="53" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>102</v>
       </c>
-      <c r="AO53" s="8" t="s">
+      <c r="AO53" s="7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="10" t="s">
         <v>103</v>
       </c>
       <c r="D54" t="s">
         <v>425</v>
       </c>
-      <c r="R54" s="13" t="s">
+      <c r="R54" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="S54" s="12"/>
-      <c r="T54" s="12" t="s">
+      <c r="T54" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="U54" s="12" t="s">
+      <c r="U54" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="V54" s="12" t="s">
+      <c r="V54" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="W54" s="12"/>
-      <c r="X54" s="12"/>
-      <c r="Y54" s="12"/>
-      <c r="Z54" s="15" t="s">
+      <c r="Z54" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="AA54" s="12" t="s">
+      <c r="AA54" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="AB54" s="12" t="s">
+      <c r="AB54" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="AC54" s="12"/>
-      <c r="AD54" s="12" t="s">
+      <c r="AD54" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE54" s="12" t="s">
+      <c r="AE54" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="AF54" s="15" t="s">
+      <c r="AF54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG54" s="12" t="s">
+      <c r="AG54" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AH54" s="12"/>
-      <c r="AI54" s="12" t="s">
+      <c r="AI54" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AO54" s="15" t="b">
+      <c r="AO54" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AP54" s="12"/>
-      <c r="AQ54" s="12"/>
-      <c r="AR54" s="12" t="s">
+      <c r="AR54" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="55" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>104</v>
       </c>
@@ -5627,68 +5346,60 @@
         <v>256</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="10" t="s">
         <v>105</v>
       </c>
       <c r="D56" t="s">
         <v>426</v>
       </c>
-      <c r="R56" s="13" t="s">
+      <c r="R56" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="S56" s="12"/>
-      <c r="T56" s="12" t="s">
+      <c r="T56" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="U56" s="12" t="s">
+      <c r="U56" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="V56" s="12" t="s">
+      <c r="V56" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="W56" s="12"/>
-      <c r="X56" s="12"/>
-      <c r="Y56" s="12"/>
-      <c r="Z56" s="15" t="s">
+      <c r="Z56" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="AA56" s="12" t="s">
+      <c r="AA56" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="AB56" s="12" t="s">
+      <c r="AB56" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="AC56" s="12"/>
-      <c r="AD56" s="12" t="s">
+      <c r="AD56" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE56" s="12" t="s">
+      <c r="AE56" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="AF56" s="15" t="s">
+      <c r="AF56" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG56" s="12" t="s">
+      <c r="AG56" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AH56" s="12"/>
-      <c r="AI56" s="12" t="s">
+      <c r="AI56" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AO56" s="15" t="b">
+      <c r="AO56" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AP56" s="12"/>
-      <c r="AQ56" s="12"/>
-      <c r="AR56" s="12" t="s">
+      <c r="AR56" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="57" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>439</v>
       </c>
@@ -5729,7 +5440,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="58" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>440</v>
       </c>
@@ -5763,7 +5474,7 @@
       <c r="AD58" t="s">
         <v>267</v>
       </c>
-      <c r="AE58" s="7" t="s">
+      <c r="AE58" s="6" t="s">
         <v>245</v>
       </c>
       <c r="AG58" t="s">
@@ -5779,7 +5490,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="59" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>441</v>
       </c>
@@ -5820,7 +5531,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="60" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>442</v>
       </c>
@@ -5854,7 +5565,7 @@
       <c r="AD60" t="s">
         <v>267</v>
       </c>
-      <c r="AE60" s="7" t="s">
+      <c r="AE60" s="6" t="s">
         <v>245</v>
       </c>
       <c r="AG60" t="s">
@@ -5870,7 +5581,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="61" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>216</v>
       </c>
@@ -5883,18 +5594,18 @@
       <c r="AJ61" t="b">
         <v>1</v>
       </c>
-      <c r="AO61" s="8" t="b">
+      <c r="AO61" s="7" t="b">
         <v>0</v>
       </c>
       <c r="AQ61" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="10" t="s">
         <v>217</v>
       </c>
       <c r="D62" t="s">
@@ -5903,62 +5614,54 @@
       <c r="E62" t="s">
         <v>363</v>
       </c>
-      <c r="R62" s="13" t="s">
+      <c r="R62" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="S62" s="12"/>
-      <c r="T62" s="15" t="s">
+      <c r="T62" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="U62" s="12" t="s">
+      <c r="U62" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="V62" s="15" t="s">
+      <c r="V62" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="W62" s="12"/>
-      <c r="X62" s="12"/>
-      <c r="Y62" s="12"/>
-      <c r="Z62" s="12" t="s">
+      <c r="Z62" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="AA62" s="12" t="s">
+      <c r="AA62" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="AB62" s="12" t="s">
+      <c r="AB62" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AC62" s="12"/>
-      <c r="AD62" s="12" t="s">
+      <c r="AD62" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE62" s="12" t="s">
+      <c r="AE62" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AF62" s="15" t="s">
+      <c r="AF62" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AG62" s="12" t="s">
+      <c r="AG62" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AH62" s="12"/>
-      <c r="AI62" s="12" t="s">
+      <c r="AI62" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AO62" s="15" t="b">
+      <c r="AO62" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AP62" s="12"/>
-      <c r="AQ62" s="12"/>
-      <c r="AR62" s="12" t="s">
+      <c r="AR62" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="10" t="s">
         <v>218</v>
       </c>
       <c r="D63" t="s">
@@ -5967,63 +5670,54 @@
       <c r="E63" t="s">
         <v>363</v>
       </c>
-      <c r="R63" s="13" t="s">
+      <c r="R63" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="S63" s="12"/>
-      <c r="T63" s="12" t="s">
+      <c r="T63" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="U63" s="12"/>
-      <c r="V63" s="15" t="s">
+      <c r="V63" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="W63" s="12"/>
-      <c r="X63" s="12"/>
-      <c r="Y63" s="12"/>
-      <c r="Z63" s="12" t="s">
+      <c r="Z63" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="AA63" s="12" t="s">
+      <c r="AA63" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="AB63" s="12" t="s">
+      <c r="AB63" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="AC63" s="12"/>
-      <c r="AD63" s="12" t="s">
+      <c r="AD63" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE63" s="12" t="s">
+      <c r="AE63" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="AF63" s="15" t="s">
+      <c r="AF63" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AG63" s="12" t="s">
+      <c r="AG63" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AH63" s="12"/>
-      <c r="AI63" s="12" t="s">
+      <c r="AI63" s="10" t="s">
         <v>125</v>
       </c>
       <c r="AJ63" t="b">
         <v>1</v>
       </c>
-      <c r="AO63" s="15" t="b">
+      <c r="AO63" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AP63" s="12"/>
-      <c r="AQ63" s="12"/>
-      <c r="AR63" s="12" t="s">
+      <c r="AR63" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="10" t="s">
         <v>219</v>
       </c>
       <c r="D64" t="s">
@@ -6032,61 +5726,52 @@
       <c r="E64" t="s">
         <v>363</v>
       </c>
-      <c r="R64" s="13" t="s">
+      <c r="R64" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="S64" s="12"/>
-      <c r="T64" s="15" t="s">
+      <c r="T64" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="U64" s="12"/>
-      <c r="V64" s="15"/>
-      <c r="W64" s="12"/>
-      <c r="X64" s="12"/>
-      <c r="Y64" s="12"/>
-      <c r="Z64" s="12" t="s">
+      <c r="V64" s="1"/>
+      <c r="Z64" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="AA64" s="12" t="s">
+      <c r="AA64" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="AB64" s="12" t="s">
+      <c r="AB64" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="AC64" s="12"/>
-      <c r="AD64" s="12" t="s">
+      <c r="AD64" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE64" s="17" t="s">
+      <c r="AE64" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AF64" s="15" t="s">
+      <c r="AF64" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG64" s="12" t="s">
+      <c r="AG64" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AH64" s="12"/>
-      <c r="AI64" s="12" t="s">
+      <c r="AI64" s="10" t="s">
         <v>141</v>
       </c>
       <c r="AJ64" t="b">
         <v>1</v>
       </c>
-      <c r="AO64" s="15" t="b">
+      <c r="AO64" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AP64" s="12"/>
-      <c r="AQ64" s="12"/>
-      <c r="AR64" s="12" t="s">
+      <c r="AR64" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="10" t="s">
         <v>220</v>
       </c>
       <c r="D65" t="s">
@@ -6095,116 +5780,100 @@
       <c r="E65" t="s">
         <v>363</v>
       </c>
-      <c r="R65" s="13" t="s">
+      <c r="R65" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="S65" s="12"/>
-      <c r="T65" s="15" t="s">
+      <c r="T65" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="U65" s="12"/>
-      <c r="V65" s="15" t="s">
+      <c r="V65" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="W65" s="12"/>
-      <c r="X65" s="12"/>
-      <c r="Y65" s="12"/>
-      <c r="Z65" s="12" t="s">
+      <c r="Z65" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="AA65" s="12" t="s">
+      <c r="AA65" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="AB65" s="12" t="s">
+      <c r="AB65" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="AC65" s="12"/>
-      <c r="AD65" s="12" t="s">
+      <c r="AD65" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE65" s="17" t="s">
+      <c r="AE65" s="15" t="s">
         <v>481</v>
       </c>
-      <c r="AF65" s="15" t="s">
+      <c r="AF65" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG65" s="12" t="s">
+      <c r="AG65" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AH65" s="12"/>
-      <c r="AI65" s="12" t="s">
+      <c r="AI65" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AO65" s="15" t="b">
+      <c r="AO65" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AP65" s="12"/>
-      <c r="AQ65" s="12"/>
-      <c r="AR65" s="12" t="s">
+      <c r="AR65" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="R66" s="13" t="s">
+      <c r="R66" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="S66" s="12"/>
-      <c r="T66" s="12"/>
-      <c r="U66" s="15" t="s">
+      <c r="U66" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V66" s="15" t="s">
+      <c r="V66" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W66" s="12"/>
-      <c r="X66" s="12" t="s">
+      <c r="X66" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="Y66" s="12"/>
-      <c r="Z66" s="12"/>
-      <c r="AA66" s="12" t="s">
+      <c r="AA66" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="AB66" s="12" t="s">
+      <c r="AB66" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="AC66" s="12" t="s">
+      <c r="AC66" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AD66" s="12" t="s">
+      <c r="AD66" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE66" s="12" t="s">
+      <c r="AE66" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="AF66" s="12" t="s">
+      <c r="AF66" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AG66" s="12" t="s">
+      <c r="AG66" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AH66" s="12"/>
-      <c r="AI66" s="12" t="s">
+      <c r="AI66" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AO66" s="15" t="b">
+      <c r="AO66" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AP66" s="12"/>
-      <c r="AQ66" s="12" t="s">
+      <c r="AQ66" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="AR66" s="12" t="s">
+      <c r="AR66" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="67" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>222</v>
       </c>
@@ -6221,58 +5890,58 @@
         <v>487</v>
       </c>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="R68" s="2" t="s">
+      <c r="R68" s="11" t="s">
         <v>505</v>
       </c>
       <c r="T68" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="U68" t="s">
+      <c r="U68" s="10" t="s">
         <v>60</v>
       </c>
       <c r="V68" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Z68" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AA68" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AB68" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AD68" t="s">
+      <c r="AD68" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE68" s="7" t="s">
+      <c r="AE68" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AF68" t="s">
+      <c r="AF68" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AG68" t="s">
+      <c r="AG68" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AI68" t="s">
+      <c r="AI68" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AO68" t="b">
+      <c r="AO68" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AR68" t="s">
+      <c r="AR68" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C69" s="12" t="s">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="C69" s="10" t="s">
         <v>223</v>
       </c>
       <c r="D69" t="s">
@@ -6281,63 +5950,56 @@
       <c r="E69" t="s">
         <v>363</v>
       </c>
-      <c r="R69" s="13" t="s">
+      <c r="R69" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="S69" s="12"/>
-      <c r="T69" s="15" t="s">
+      <c r="T69" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="U69" s="12" t="s">
+      <c r="U69" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="V69" s="15" t="s">
+      <c r="V69" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="W69" s="12"/>
-      <c r="X69" s="12"/>
-      <c r="Y69" s="12"/>
-      <c r="Z69" s="12" t="s">
+      <c r="Z69" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="AA69" s="12" t="s">
+      <c r="AA69" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="AB69" s="12" t="s">
+      <c r="AB69" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AC69" s="12"/>
-      <c r="AD69" s="12" t="s">
+      <c r="AD69" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE69" s="12" t="s">
+      <c r="AE69" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AF69" s="15" t="s">
+      <c r="AF69" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AG69" s="12" t="s">
+      <c r="AG69" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AH69" s="12"/>
-      <c r="AI69" s="12" t="s">
+      <c r="AI69" s="10" t="s">
         <v>141</v>
       </c>
       <c r="AJ69" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AO69" s="12" t="b">
+      <c r="AO69" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP69" s="12"/>
-      <c r="AQ69" t="s">
+      <c r="AQ69" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="AR69" t="s">
+      <c r="AR69" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="70" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
         <v>224</v>
       </c>
@@ -6345,7 +6007,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="71" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
         <v>225</v>
       </c>
@@ -6353,7 +6015,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="72" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
         <v>226</v>
       </c>
@@ -6361,63 +6023,54 @@
         <v>258</v>
       </c>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="R73" s="13" t="s">
+      <c r="R73" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="S73" s="12"/>
-      <c r="T73" s="15" t="s">
+      <c r="T73" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="U73" s="12"/>
-      <c r="V73" s="15" t="s">
+      <c r="V73" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="W73" s="12"/>
-      <c r="X73" s="12"/>
-      <c r="Y73" s="12"/>
-      <c r="Z73" s="12" t="s">
+      <c r="Z73" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="AA73" s="15" t="s">
+      <c r="AA73" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="AB73" s="12" t="s">
+      <c r="AB73" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AC73" s="12"/>
-      <c r="AD73" s="12" t="s">
+      <c r="AD73" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE73" s="17" t="s">
+      <c r="AE73" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AF73" s="12" t="s">
+      <c r="AF73" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AG73" s="12" t="s">
+      <c r="AG73" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AH73" s="12"/>
-      <c r="AI73" s="12" t="s">
+      <c r="AI73" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AO73" s="12" t="b">
+      <c r="AO73" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP73" s="12"/>
-      <c r="AQ73" s="12"/>
-      <c r="AR73" s="12" t="s">
+      <c r="AR73" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="74" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>515</v>
       </c>
@@ -6445,7 +6098,7 @@
       <c r="AD74" t="s">
         <v>50</v>
       </c>
-      <c r="AE74" s="7" t="s">
+      <c r="AE74" s="6" t="s">
         <v>245</v>
       </c>
       <c r="AF74" t="s">
@@ -6464,7 +6117,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="75" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>516</v>
       </c>
@@ -6492,7 +6145,7 @@
       <c r="AD75" t="s">
         <v>50</v>
       </c>
-      <c r="AE75" s="7" t="s">
+      <c r="AE75" s="6" t="s">
         <v>245</v>
       </c>
       <c r="AF75" t="s">
@@ -6511,7 +6164,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="76" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
         <v>228</v>
       </c>
@@ -6525,67 +6178,60 @@
         <v>526</v>
       </c>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="R77" s="13" t="s">
+      <c r="R77" s="11" t="s">
         <v>530</v>
       </c>
-      <c r="S77" s="12"/>
-      <c r="T77" s="15" t="s">
+      <c r="T77" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="U77" s="12" t="s">
+      <c r="U77" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="V77" s="15" t="s">
+      <c r="V77" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="W77" s="12" t="s">
+      <c r="W77" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="X77" s="12"/>
-      <c r="Y77" s="12"/>
-      <c r="Z77" s="12" t="s">
+      <c r="Z77" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="AA77" s="12" t="s">
+      <c r="AA77" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="AB77" s="12" t="s">
+      <c r="AB77" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AC77" s="12"/>
-      <c r="AD77" s="12" t="s">
+      <c r="AD77" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE77" s="12" t="s">
+      <c r="AE77" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AF77" s="12" t="s">
+      <c r="AF77" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AG77" s="12" t="s">
+      <c r="AG77" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AH77" s="12"/>
-      <c r="AI77" s="12" t="s">
+      <c r="AI77" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AO77" s="12" t="b">
+      <c r="AO77" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP77" s="12"/>
-      <c r="AQ77" s="12"/>
-      <c r="AR77" s="12" t="s">
+      <c r="AR77" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="78" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
         <v>230</v>
       </c>
@@ -6610,7 +6256,7 @@
       <c r="AD78" t="s">
         <v>62</v>
       </c>
-      <c r="AE78" s="6" t="s">
+      <c r="AE78" s="5" t="s">
         <v>163</v>
       </c>
       <c r="AF78" t="s">
@@ -6629,7 +6275,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="79" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
         <v>231</v>
       </c>
@@ -6640,7 +6286,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="80" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
         <v>232</v>
       </c>
@@ -6648,7 +6294,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="81" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
         <v>233</v>
       </c>
@@ -6656,7 +6302,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="82" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
         <v>234</v>
       </c>
@@ -6697,7 +6343,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="83" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
         <v>235</v>
       </c>
@@ -6741,8 +6387,8 @@
         <v>396</v>
       </c>
     </row>
-    <row r="84" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C84" s="11" t="s">
+    <row r="84" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C84" s="9" t="s">
         <v>236</v>
       </c>
       <c r="T84" s="1" t="s">
@@ -6785,8 +6431,8 @@
         <v>396</v>
       </c>
     </row>
-    <row r="85" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="11" t="s">
+    <row r="85" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="9" t="s">
         <v>237</v>
       </c>
       <c r="V85" s="1" t="s">
@@ -6796,8 +6442,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="11" t="s">
+    <row r="86" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C86" s="9" t="s">
         <v>238</v>
       </c>
       <c r="V86" s="1" t="s">
@@ -6807,8 +6453,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="11" t="s">
+    <row r="87" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C87" s="9" t="s">
         <v>239</v>
       </c>
       <c r="V87" s="1" t="s">
@@ -6821,120 +6467,120 @@
         <v>550</v>
       </c>
     </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="R88" s="2" t="s">
+      <c r="R88" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="T88" s="10" t="s">
+      <c r="T88" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="U88" t="s">
+      <c r="U88" s="10" t="s">
         <v>60</v>
       </c>
       <c r="V88" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="X88" t="s">
+      <c r="X88" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Z88" s="10" t="s">
         <v>553</v>
       </c>
       <c r="AA88" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AB88" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AD88" t="s">
+      <c r="AD88" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE88" s="7" t="s">
+      <c r="AE88" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AF88" t="s">
+      <c r="AF88" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AG88" t="s">
+      <c r="AG88" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AI88" t="s">
+      <c r="AI88" s="10" t="s">
         <v>141</v>
       </c>
       <c r="AJ88" t="b">
         <v>1</v>
       </c>
-      <c r="AO88" t="b">
+      <c r="AO88" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AR88" t="s">
+      <c r="AR88" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A89" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="R89" s="2" t="s">
+      <c r="R89" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="T89" s="10" t="s">
+      <c r="T89" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="U89" t="s">
+      <c r="U89" s="10" t="s">
         <v>60</v>
       </c>
       <c r="V89" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="X89" t="s">
+      <c r="X89" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Z89" s="10" t="s">
         <v>553</v>
       </c>
       <c r="AA89" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AB89" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AD89" t="s">
+      <c r="AD89" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE89" s="7" t="s">
+      <c r="AE89" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AF89" t="s">
+      <c r="AF89" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AG89" t="s">
+      <c r="AG89" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AI89" t="s">
+      <c r="AI89" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AO89" t="b">
+      <c r="AO89" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AQ89" t="s">
+      <c r="AQ89" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="AR89" t="s">
+      <c r="AR89" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="90" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C90" s="11" t="s">
+    <row r="90" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C90" s="9" t="s">
         <v>240</v>
       </c>
       <c r="V90" s="1" t="s">
@@ -6944,68 +6590,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A91" s="23" t="s">
+    <row r="91" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="R91" s="22" t="s">
+      <c r="R91" s="11" t="s">
         <v>606</v>
       </c>
-      <c r="S91" s="23"/>
-      <c r="T91" s="23" t="s">
+      <c r="T91" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="U91" s="23" t="s">
+      <c r="U91" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="V91" s="25" t="s">
+      <c r="V91" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="W91" s="23"/>
-      <c r="X91" s="23"/>
-      <c r="Y91" s="23"/>
-      <c r="Z91" s="23" t="s">
+      <c r="Z91" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="AA91" s="23" t="s">
+      <c r="AA91" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="AB91" s="23" t="s">
+      <c r="AB91" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="AC91" s="23"/>
-      <c r="AD91" s="23" t="s">
+      <c r="AD91" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE91" s="23" t="s">
+      <c r="AE91" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="AF91" s="23" t="s">
+      <c r="AF91" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AG91" s="23" t="s">
+      <c r="AG91" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AH91" s="23"/>
-      <c r="AI91" s="23" t="s">
+      <c r="AI91" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AO91" s="23" t="b">
+      <c r="AO91" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP91" s="23"/>
-      <c r="AQ91" s="23" t="s">
+      <c r="AQ91" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="AR91" s="23" t="s">
+      <c r="AR91" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="92" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C92" s="11" t="s">
+    <row r="92" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C92" s="9" t="s">
         <v>242</v>
       </c>
       <c r="V92" s="1" t="s">
@@ -7015,8 +6654,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="11" t="s">
+    <row r="93" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C93" s="9" t="s">
         <v>243</v>
       </c>
       <c r="V93" s="1" t="s">
@@ -7026,8 +6665,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="11" t="s">
+    <row r="94" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C94" s="9" t="s">
         <v>243</v>
       </c>
       <c r="V94" s="1" t="s">
@@ -7037,11 +6676,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C95" s="11" t="s">
+    <row r="95" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="C95" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="R95" s="2" t="s">
+      <c r="R95" s="11" t="s">
         <v>502</v>
       </c>
       <c r="U95" s="1" t="s">
@@ -7050,45 +6689,45 @@
       <c r="V95" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="X95" t="s">
+      <c r="X95" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="AA95" t="s">
+      <c r="AA95" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AB95" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="AC95" t="s">
+      <c r="AC95" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AD95" t="s">
+      <c r="AD95" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE95" s="6" t="s">
+      <c r="AE95" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="AF95" t="s">
+      <c r="AF95" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AG95" t="s">
+      <c r="AG95" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AI95" t="s">
+      <c r="AI95" s="10" t="s">
         <v>125</v>
       </c>
       <c r="AO95" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AQ95" t="s">
+      <c r="AQ95" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="AR95" t="s">
+      <c r="AR95" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="96" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="11" t="s">
+    <row r="96" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C96" s="9" t="s">
         <v>214</v>
       </c>
       <c r="AJ96" s="1" t="b">
@@ -7101,131 +6740,116 @@
         <v>582</v>
       </c>
     </row>
-    <row r="97" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C97" s="21" t="s">
+    <row r="97" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="C97" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="R97" s="22" t="s">
+      <c r="R97" s="11" t="s">
         <v>545</v>
       </c>
-      <c r="S97" s="23"/>
-      <c r="T97" s="23" t="s">
+      <c r="T97" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="U97" s="23" t="s">
+      <c r="U97" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="V97" s="25" t="s">
+      <c r="V97" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="W97" s="23" t="s">
+      <c r="W97" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="X97" s="23"/>
-      <c r="Y97" s="23"/>
-      <c r="Z97" s="23" t="s">
+      <c r="Z97" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="AA97" s="23" t="s">
+      <c r="AA97" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="AB97" s="23" t="s">
+      <c r="AB97" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="AC97" s="23"/>
-      <c r="AD97" s="23" t="s">
+      <c r="AD97" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE97" s="24" t="s">
+      <c r="AE97" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AF97" s="23" t="s">
+      <c r="AF97" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AG97" s="23" t="s">
+      <c r="AG97" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AH97" s="23"/>
-      <c r="AI97" s="23" t="s">
+      <c r="AI97" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AO97" s="25" t="b">
+      <c r="AO97" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AP97" s="23"/>
-      <c r="AQ97" s="23"/>
-      <c r="AR97" s="23" t="s">
+      <c r="AR97" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="98" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A98" s="23" t="s">
+    <row r="98" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="R98" s="22" t="s">
+      <c r="R98" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="S98" s="23"/>
-      <c r="T98" s="23" t="s">
+      <c r="T98" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="U98" s="23" t="s">
+      <c r="U98" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="V98" s="25" t="s">
+      <c r="V98" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="W98" s="23"/>
-      <c r="X98" s="23"/>
-      <c r="Y98" s="23"/>
-      <c r="Z98" s="23" t="s">
+      <c r="Z98" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="AA98" s="23" t="s">
+      <c r="AA98" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="AB98" s="23" t="s">
+      <c r="AB98" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AC98" s="23"/>
-      <c r="AD98" s="23" t="s">
+      <c r="AD98" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE98" s="24" t="s">
+      <c r="AE98" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AF98" s="23" t="s">
+      <c r="AF98" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AG98" s="23" t="s">
+      <c r="AG98" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AH98" s="23"/>
-      <c r="AI98" s="23" t="s">
+      <c r="AI98" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AO98" s="23" t="b">
+      <c r="AO98" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP98" s="23"/>
-      <c r="AQ98" s="23"/>
-      <c r="AR98" s="23" t="s">
+      <c r="AR98" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="99" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="11" t="s">
+    <row r="99" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C99" s="9" t="s">
         <v>211</v>
       </c>
       <c r="AO99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="11" t="s">
+    <row r="100" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C100" s="9" t="s">
         <v>210</v>
       </c>
       <c r="V100" s="1" t="s">
@@ -7235,8 +6859,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="11" t="s">
+    <row r="101" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C101" s="9" t="s">
         <v>210</v>
       </c>
       <c r="V101" s="1" t="s">
@@ -7246,11 +6870,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:44" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="11" t="s">
+    <row r="102" spans="1:44" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C102" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="V102" s="9" t="s">
+      <c r="V102" s="8" t="s">
         <v>327</v>
       </c>
       <c r="AO102" t="b">
@@ -7260,66 +6884,58 @@
         <v>593</v>
       </c>
     </row>
-    <row r="103" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A103" s="23" t="s">
+    <row r="103" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A103" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="C103" s="21" t="s">
+      <c r="C103" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="R103" s="22" t="s">
+      <c r="R103" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="S103" s="23"/>
-      <c r="T103" s="23" t="s">
+      <c r="T103" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="U103" s="23" t="s">
+      <c r="U103" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="V103" s="23" t="s">
+      <c r="V103" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="W103" s="23"/>
-      <c r="X103" s="23"/>
-      <c r="Y103" s="23"/>
-      <c r="Z103" s="23" t="s">
+      <c r="Z103" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AA103" s="23" t="s">
+      <c r="AA103" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="AB103" s="23" t="s">
+      <c r="AB103" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AC103" s="23"/>
-      <c r="AD103" s="23" t="s">
+      <c r="AD103" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE103" s="23" t="s">
+      <c r="AE103" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AF103" s="23" t="s">
+      <c r="AF103" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AG103" s="23" t="s">
+      <c r="AG103" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AH103" s="23"/>
-      <c r="AI103" s="23" t="s">
+      <c r="AI103" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AO103" s="23" t="b">
+      <c r="AO103" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP103" s="23"/>
-      <c r="AQ103" s="23"/>
-      <c r="AR103" s="23" t="s">
+      <c r="AR103" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="104" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C104" s="11" t="s">
+    <row r="104" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C104" s="9" t="s">
         <v>207</v>
       </c>
       <c r="AO104" t="b">
@@ -7329,16 +6945,16 @@
         <v>593</v>
       </c>
     </row>
-    <row r="105" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C105" s="11" t="s">
+    <row r="105" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C105" s="9" t="s">
         <v>206</v>
       </c>
       <c r="AO105" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="106" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C106" s="11" t="s">
+    <row r="106" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C106" s="9" t="s">
         <v>205</v>
       </c>
       <c r="AO106" t="b">
@@ -7348,8 +6964,8 @@
         <v>593</v>
       </c>
     </row>
-    <row r="107" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C107" s="11" t="s">
+    <row r="107" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C107" s="9" t="s">
         <v>204</v>
       </c>
       <c r="AO107" t="b">
@@ -7359,8 +6975,8 @@
         <v>582</v>
       </c>
     </row>
-    <row r="108" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C108" s="11" t="s">
+    <row r="108" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C108" s="9" t="s">
         <v>203</v>
       </c>
       <c r="V108" s="1" t="s">
@@ -7370,8 +6986,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C109" s="11" t="s">
+    <row r="109" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C109" s="9" t="s">
         <v>203</v>
       </c>
       <c r="V109" s="1" t="s">
@@ -7381,183 +6997,161 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A110" s="23" t="s">
+    <row r="110" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A110" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="C110" s="21" t="s">
+      <c r="C110" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="R110" s="22" t="s">
+      <c r="R110" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="S110" s="23"/>
-      <c r="T110" s="23" t="s">
+      <c r="T110" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="U110" s="23" t="s">
+      <c r="U110" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="V110" s="25" t="s">
+      <c r="V110" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="W110" s="23"/>
-      <c r="X110" s="23" t="s">
+      <c r="X110" s="10" t="s">
         <v>602</v>
       </c>
-      <c r="Y110" s="23"/>
-      <c r="Z110" s="23" t="s">
+      <c r="Z110" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="AA110" s="25" t="s">
+      <c r="AA110" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AB110" s="23" t="s">
+      <c r="AB110" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AC110" s="23"/>
-      <c r="AD110" s="23" t="s">
+      <c r="AD110" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE110" s="23" t="s">
+      <c r="AE110" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="AF110" s="23" t="s">
+      <c r="AF110" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AG110" s="23" t="s">
+      <c r="AG110" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AH110" s="23"/>
-      <c r="AI110" s="23" t="s">
+      <c r="AI110" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AO110" s="23" t="b">
+      <c r="AO110" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP110" s="23"/>
-      <c r="AQ110" s="23"/>
-      <c r="AR110" s="23" t="s">
+      <c r="AR110" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="111" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A111" s="23" t="s">
+    <row r="111" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A111" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="C111" s="21" t="s">
+      <c r="C111" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="R111" s="22" t="s">
+      <c r="R111" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="S111" s="23"/>
-      <c r="T111" s="23" t="s">
+      <c r="T111" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="U111" s="23" t="s">
+      <c r="U111" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="V111" s="23" t="s">
+      <c r="V111" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="W111" s="23"/>
-      <c r="X111" s="23"/>
-      <c r="Y111" s="23"/>
-      <c r="Z111" s="23" t="s">
+      <c r="Z111" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="AA111" s="23" t="s">
+      <c r="AA111" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="AB111" s="23" t="s">
+      <c r="AB111" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="AC111" s="23"/>
-      <c r="AD111" s="23" t="s">
+      <c r="AD111" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE111" s="24" t="s">
+      <c r="AE111" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AF111" s="25" t="s">
+      <c r="AF111" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG111" s="25" t="s">
+      <c r="AG111" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AH111" s="23"/>
-      <c r="AI111" s="23" t="s">
+      <c r="AI111" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AO111" s="25" t="b">
+      <c r="AO111" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AP111" s="23"/>
-      <c r="AQ111" s="23"/>
-      <c r="AR111" s="23" t="s">
+      <c r="AR111" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="112" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C112" s="21" t="s">
+    <row r="112" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="C112" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="R112" s="22" t="s">
+      <c r="R112" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="S112" s="23"/>
-      <c r="T112" s="23"/>
-      <c r="U112" s="25" t="s">
+      <c r="U112" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V112" s="25" t="s">
+      <c r="V112" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W112" s="23"/>
-      <c r="X112" s="23" t="s">
+      <c r="X112" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="Y112" s="23"/>
-      <c r="Z112" s="23"/>
-      <c r="AA112" s="23" t="s">
+      <c r="AA112" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="AB112" s="23" t="s">
+      <c r="AB112" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="AC112" s="23" t="s">
+      <c r="AC112" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AD112" s="23" t="s">
+      <c r="AD112" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE112" s="23" t="s">
+      <c r="AE112" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="AF112" s="23" t="s">
+      <c r="AF112" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AG112" s="23" t="s">
+      <c r="AG112" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AH112" s="23"/>
-      <c r="AI112" s="23" t="s">
+      <c r="AI112" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AO112" s="25" t="b">
+      <c r="AO112" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AP112" s="23"/>
-      <c r="AQ112" s="23" t="s">
+      <c r="AQ112" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="AR112" s="23" t="s">
+      <c r="AR112" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="113" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="11" t="s">
+    <row r="113" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C113" s="9" t="s">
         <v>199</v>
       </c>
       <c r="V113" s="1" t="s">
@@ -7570,8 +7164,8 @@
         <v>583</v>
       </c>
     </row>
-    <row r="114" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C114" s="11" t="s">
+    <row r="114" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C114" s="9" t="s">
         <v>198</v>
       </c>
       <c r="U114" t="s">
@@ -7593,65 +7187,58 @@
         <v>541</v>
       </c>
     </row>
-    <row r="115" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="C115" s="21" t="s">
+    <row r="115" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="C115" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="R115" s="22" t="s">
+      <c r="R115" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="S115" s="23"/>
-      <c r="T115" s="23"/>
-      <c r="U115" s="25" t="s">
+      <c r="U115" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V115" s="25" t="s">
+      <c r="V115" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W115" s="23"/>
-      <c r="X115" s="23" t="s">
+      <c r="X115" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="Y115" s="23"/>
-      <c r="Z115" s="23"/>
-      <c r="AA115" s="23" t="s">
+      <c r="AA115" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="AB115" s="23" t="s">
+      <c r="AB115" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="AC115" s="23" t="s">
+      <c r="AC115" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AD115" s="23" t="s">
+      <c r="AD115" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE115" s="23" t="s">
+      <c r="AE115" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="AF115" s="23" t="s">
+      <c r="AF115" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AG115" s="23" t="s">
+      <c r="AG115" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AH115" s="23"/>
-      <c r="AI115" s="23" t="s">
+      <c r="AI115" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AO115" s="25" t="b">
+      <c r="AO115" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AP115" s="23"/>
-      <c r="AQ115" s="23" t="s">
+      <c r="AQ115" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="AR115" s="23" t="s">
+      <c r="AR115" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="116" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C116" s="11" t="s">
+    <row r="116" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C116" s="9" t="s">
         <v>196</v>
       </c>
       <c r="AO116" t="b">
@@ -7661,8 +7248,8 @@
         <v>537</v>
       </c>
     </row>
-    <row r="117" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C117" s="11" t="s">
+    <row r="117" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C117" s="9" t="s">
         <v>195</v>
       </c>
       <c r="V117" s="1" t="s">
@@ -7675,8 +7262,8 @@
         <v>539</v>
       </c>
     </row>
-    <row r="118" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C118" s="11" t="s">
+    <row r="118" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C118" s="9" t="s">
         <v>194</v>
       </c>
       <c r="V118" s="1" t="s">
@@ -7689,82 +7276,74 @@
         <v>539</v>
       </c>
     </row>
-    <row r="119" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C119" s="11" t="s">
+    <row r="119" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C119" s="9" t="s">
         <v>193</v>
       </c>
       <c r="AO119" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="120" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C120" s="11" t="s">
+    <row r="120" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C120" s="9" t="s">
         <v>192</v>
       </c>
       <c r="AO120" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="121" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A121" s="12"/>
-      <c r="C121" s="19" t="s">
+    <row r="121" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="C121" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="R121" s="13" t="s">
+      <c r="R121" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="S121" s="12"/>
-      <c r="T121" s="12"/>
-      <c r="U121" s="15" t="s">
+      <c r="U121" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V121" s="15" t="s">
+      <c r="V121" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="W121" s="12"/>
-      <c r="X121" s="12" t="s">
+      <c r="X121" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="Y121" s="12"/>
-      <c r="Z121" s="12"/>
-      <c r="AA121" s="12" t="s">
+      <c r="AA121" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="AB121" s="12" t="s">
+      <c r="AB121" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="AC121" s="12" t="s">
+      <c r="AC121" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AD121" s="12" t="s">
+      <c r="AD121" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE121" s="12" t="s">
+      <c r="AE121" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="AF121" s="12" t="s">
+      <c r="AF121" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AG121" s="12" t="s">
+      <c r="AG121" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AH121" s="12"/>
-      <c r="AI121" s="12" t="s">
+      <c r="AI121" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AO121" s="15" t="b">
+      <c r="AO121" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AP121" s="12"/>
-      <c r="AQ121" s="12" t="s">
+      <c r="AQ121" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="AR121" s="12" t="s">
+      <c r="AR121" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="122" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C122" s="11" t="s">
+    <row r="122" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C122" s="9" t="s">
         <v>190</v>
       </c>
       <c r="AO122" t="b">
@@ -7774,11 +7353,11 @@
         <v>538</v>
       </c>
     </row>
-    <row r="123" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
+    <row r="123" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A123" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="C123" s="19" t="s">
+      <c r="C123" s="17" t="s">
         <v>189</v>
       </c>
       <c r="D123" t="s">
@@ -7787,62 +7366,54 @@
       <c r="E123" t="s">
         <v>363</v>
       </c>
-      <c r="R123" s="13" t="s">
+      <c r="R123" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="S123" s="12"/>
-      <c r="T123" s="15" t="s">
+      <c r="T123" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="U123" s="12" t="s">
+      <c r="U123" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="V123" s="15" t="s">
+      <c r="V123" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="W123" s="12"/>
-      <c r="X123" s="12"/>
-      <c r="Y123" s="12"/>
-      <c r="Z123" s="12" t="s">
+      <c r="Z123" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="AA123" s="12" t="s">
+      <c r="AA123" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="AB123" s="12" t="s">
+      <c r="AB123" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AC123" s="12"/>
-      <c r="AD123" s="12" t="s">
+      <c r="AD123" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE123" s="12" t="s">
+      <c r="AE123" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AF123" s="15" t="s">
+      <c r="AF123" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AG123" s="12" t="s">
+      <c r="AG123" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AH123" s="12"/>
-      <c r="AI123" s="12" t="s">
+      <c r="AI123" s="10" t="s">
         <v>141</v>
       </c>
       <c r="AJ123" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AO123" s="12" t="b">
+      <c r="AO123" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP123" s="12"/>
-      <c r="AQ123" s="12"/>
-      <c r="AR123" s="12" t="s">
+      <c r="AR123" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="124" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C124" s="11" t="s">
+    <row r="124" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C124" s="9" t="s">
         <v>188</v>
       </c>
       <c r="V124" s="1" t="s">
@@ -7855,8 +7426,8 @@
         <v>536</v>
       </c>
     </row>
-    <row r="125" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C125" s="11" t="s">
+    <row r="125" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C125" s="9" t="s">
         <v>187</v>
       </c>
       <c r="V125" s="1" t="s">
@@ -7869,8 +7440,8 @@
         <v>536</v>
       </c>
     </row>
-    <row r="126" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C126" s="11" t="s">
+    <row r="126" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C126" s="9" t="s">
         <v>186</v>
       </c>
       <c r="V126" s="1"/>
@@ -7881,8 +7452,8 @@
         <v>537</v>
       </c>
     </row>
-    <row r="127" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C127" s="11" t="s">
+    <row r="127" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C127" s="9" t="s">
         <v>185</v>
       </c>
       <c r="V127" s="1" t="s">
@@ -7895,8 +7466,8 @@
         <v>536</v>
       </c>
     </row>
-    <row r="128" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C128" s="11" t="s">
+    <row r="128" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C128" s="9" t="s">
         <v>184</v>
       </c>
       <c r="V128" s="1" t="s">
@@ -7909,8 +7480,8 @@
         <v>536</v>
       </c>
     </row>
-    <row r="129" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C129" s="11" t="s">
+    <row r="129" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C129" s="9" t="s">
         <v>183</v>
       </c>
       <c r="AO129" t="b">
@@ -7920,8 +7491,8 @@
         <v>536</v>
       </c>
     </row>
-    <row r="130" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C130" s="11" t="s">
+    <row r="130" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C130" s="9" t="s">
         <v>182</v>
       </c>
       <c r="AD130" t="s">
@@ -7931,16 +7502,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C131" s="11" t="s">
+    <row r="131" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C131" s="9" t="s">
         <v>181</v>
       </c>
       <c r="AO131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C132" s="11" t="s">
+    <row r="132" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C132" s="9" t="s">
         <v>180</v>
       </c>
       <c r="V132" s="1" t="s">
@@ -7953,8 +7524,8 @@
         <v>535</v>
       </c>
     </row>
-    <row r="133" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C133" s="11" t="s">
+    <row r="133" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C133" s="9" t="s">
         <v>179</v>
       </c>
       <c r="AO133" t="b">
@@ -7964,8 +7535,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="134" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C134" s="11" t="s">
+    <row r="134" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C134" s="9" t="s">
         <v>178</v>
       </c>
       <c r="AO134" t="b">
@@ -7975,8 +7546,8 @@
         <v>257</v>
       </c>
     </row>
-    <row r="135" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C135" s="11" t="s">
+    <row r="135" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C135" s="9" t="s">
         <v>177</v>
       </c>
       <c r="V135" s="1" t="s">
@@ -7989,8 +7560,8 @@
         <v>534</v>
       </c>
     </row>
-    <row r="136" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C136" s="11" t="s">
+    <row r="136" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C136" s="9" t="s">
         <v>176</v>
       </c>
       <c r="V136" s="1" t="s">
@@ -8003,8 +7574,8 @@
         <v>273</v>
       </c>
     </row>
-    <row r="137" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C137" s="11" t="s">
+    <row r="137" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C137" s="9" t="s">
         <v>175</v>
       </c>
       <c r="AD137" t="s">
@@ -8017,72 +7588,64 @@
         <v>271</v>
       </c>
     </row>
-    <row r="138" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A138" s="12" t="s">
+    <row r="138" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A138" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="C138" s="19" t="s">
+      <c r="C138" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="R138" s="13" t="s">
+      <c r="R138" s="11" t="s">
         <v>609</v>
       </c>
-      <c r="S138" s="12"/>
-      <c r="T138" s="12" t="s">
+      <c r="T138" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="U138" s="12"/>
-      <c r="V138" s="15" t="s">
+      <c r="V138" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="W138" s="12"/>
-      <c r="X138" s="12"/>
-      <c r="Y138" s="12"/>
-      <c r="Z138" s="12"/>
-      <c r="AA138" s="12" t="s">
+      <c r="AA138" s="10" t="s">
         <v>612</v>
       </c>
-      <c r="AB138" s="12" t="s">
+      <c r="AB138" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="AC138" s="12" t="s">
+      <c r="AC138" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AD138" s="12" t="s">
+      <c r="AD138" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE138" s="12" t="s">
+      <c r="AE138" s="10" t="s">
         <v>610</v>
       </c>
-      <c r="AF138" s="12" t="s">
+      <c r="AF138" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AG138" s="12" t="s">
+      <c r="AG138" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AH138" s="12"/>
-      <c r="AI138" s="12" t="s">
+      <c r="AI138" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AO138" s="12" t="b">
+      <c r="AO138" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP138" s="12"/>
-      <c r="AQ138" s="12" t="s">
+      <c r="AQ138" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="AR138" s="12" t="s">
+      <c r="AR138" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="139" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>270</v>
       </c>
       <c r="B139" t="s">
         <v>45</v>
       </c>
-      <c r="C139" s="11" t="s">
+      <c r="C139" s="9" t="s">
         <v>173</v>
       </c>
       <c r="D139" t="s">
@@ -8131,14 +7694,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A140" s="12" t="s">
+    <row r="140" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A140" s="10" t="s">
         <v>259</v>
       </c>
       <c r="B140" t="s">
         <v>45</v>
       </c>
-      <c r="C140" s="19" t="s">
+      <c r="C140" s="17" t="s">
         <v>172</v>
       </c>
       <c r="D140" t="s">
@@ -8156,78 +7719,70 @@
       <c r="H140">
         <v>1370</v>
       </c>
-      <c r="R140" s="13" t="s">
+      <c r="R140" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="S140" s="12"/>
-      <c r="T140" s="12" t="s">
+      <c r="T140" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="U140" s="12" t="s">
+      <c r="U140" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="V140" s="12" t="s">
+      <c r="V140" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="W140" s="12"/>
-      <c r="X140" s="12"/>
-      <c r="Y140" s="12"/>
-      <c r="Z140" s="12" t="s">
+      <c r="Z140" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="AA140" s="12" t="s">
+      <c r="AA140" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="AB140" s="12" t="s">
+      <c r="AB140" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AC140" s="12"/>
-      <c r="AD140" s="12" t="s">
+      <c r="AD140" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE140" s="12" t="s">
+      <c r="AE140" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AF140" s="15" t="s">
+      <c r="AF140" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AG140" s="15" t="s">
+      <c r="AG140" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AH140" s="12"/>
-      <c r="AI140" s="12" t="s">
+      <c r="AI140" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AO140" s="12" t="b">
+      <c r="AO140" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP140" s="12"/>
-      <c r="AQ140" s="12"/>
-      <c r="AR140" s="12" t="s">
+      <c r="AR140" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="141" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C141" s="11" t="s">
+    <row r="141" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C141" s="9" t="s">
         <v>171</v>
       </c>
       <c r="AO141" t="b">
         <v>0</v>
       </c>
-      <c r="AQ141" s="6" t="s">
+      <c r="AQ141" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="142" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C142" s="11" t="s">
+    <row r="142" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C142" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="AO142" s="8" t="s">
+      <c r="AO142" s="7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="143" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C143" s="11" t="s">
+    <row r="143" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C143" s="9" t="s">
         <v>169</v>
       </c>
       <c r="AO143" t="b">
@@ -8240,8 +7795,8 @@
         <v>254</v>
       </c>
     </row>
-    <row r="144" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C144" s="11" t="s">
+    <row r="144" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C144" s="9" t="s">
         <v>168</v>
       </c>
       <c r="U144" s="1" t="s">
@@ -8265,7 +7820,7 @@
       <c r="AD144" t="s">
         <v>62</v>
       </c>
-      <c r="AE144" s="6" t="s">
+      <c r="AE144" s="5" t="s">
         <v>163</v>
       </c>
       <c r="AF144" t="s">
@@ -8284,66 +7839,58 @@
         <v>498</v>
       </c>
     </row>
-    <row r="145" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A145" s="12"/>
-      <c r="C145" s="19" t="s">
+    <row r="145" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="C145" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="R145" s="13" t="s">
+      <c r="R145" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="S145" s="12"/>
-      <c r="T145" s="12"/>
-      <c r="U145" s="15" t="s">
+      <c r="U145" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V145" s="15" t="s">
+      <c r="V145" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W145" s="12"/>
-      <c r="X145" s="12" t="s">
+      <c r="X145" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="Y145" s="12"/>
-      <c r="Z145" s="12"/>
-      <c r="AA145" s="12" t="s">
+      <c r="AA145" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="AB145" s="12" t="s">
+      <c r="AB145" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="AC145" s="12" t="s">
+      <c r="AC145" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AD145" s="12" t="s">
+      <c r="AD145" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AE145" s="12" t="s">
+      <c r="AE145" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="AF145" s="12" t="s">
+      <c r="AF145" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AG145" s="12" t="s">
+      <c r="AG145" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AH145" s="12"/>
-      <c r="AI145" s="12" t="s">
+      <c r="AI145" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AO145" s="12" t="b">
+      <c r="AO145" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP145" s="12"/>
-      <c r="AQ145" s="12" t="s">
+      <c r="AQ145" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="AR145" s="12" t="s">
+      <c r="AR145" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="146" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C146" s="11" t="s">
+    <row r="146" spans="1:44" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C146" s="9" t="s">
         <v>166</v>
       </c>
       <c r="AO146" t="b">
@@ -8353,14 +7900,14 @@
         <v>598</v>
       </c>
     </row>
-    <row r="147" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A147" s="12" t="s">
+    <row r="147" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A147" s="10" t="s">
         <v>253</v>
       </c>
       <c r="B147" t="s">
         <v>45</v>
       </c>
-      <c r="C147" s="19" t="s">
+      <c r="C147" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D147" t="s">
@@ -8378,155 +7925,143 @@
       <c r="H147" s="1">
         <v>3467</v>
       </c>
-      <c r="R147" s="13" t="s">
+      <c r="R147" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="S147" s="12"/>
-      <c r="T147" s="12" t="s">
+      <c r="T147" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="U147" s="15" t="s">
+      <c r="U147" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="V147" s="15" t="s">
+      <c r="V147" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="W147" s="12" t="s">
+      <c r="W147" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="X147" s="12"/>
-      <c r="Y147" s="12"/>
-      <c r="Z147" s="12" t="s">
+      <c r="Z147" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="AA147" s="12" t="s">
+      <c r="AA147" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="AB147" s="12" t="s">
+      <c r="AB147" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="AC147" s="12"/>
-      <c r="AD147" s="12" t="s">
+      <c r="AD147" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE147" s="17" t="s">
+      <c r="AE147" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AF147" s="15" t="s">
+      <c r="AF147" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG147" s="15" t="s">
+      <c r="AG147" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AH147" s="12"/>
-      <c r="AI147" s="12" t="s">
+      <c r="AI147" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AO147" s="12" t="b">
+      <c r="AO147" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP147" s="12" t="s">
+      <c r="AP147" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AQ147" s="12"/>
-      <c r="AR147" s="12" t="s">
+      <c r="AR147" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="148" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A148" s="12" t="s">
+    <row r="148" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A148" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="C148" s="19" t="s">
+      <c r="C148" s="17" t="s">
         <v>561</v>
       </c>
-      <c r="R148" s="13" t="s">
+      <c r="R148" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="S148" s="12"/>
-      <c r="T148" s="12" t="s">
+      <c r="T148" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="U148" s="12" t="s">
+      <c r="U148" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="V148" s="12" t="s">
+      <c r="V148" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="W148" s="12" t="s">
+      <c r="W148" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="X148" s="12"/>
-      <c r="Y148" s="12"/>
-      <c r="Z148" s="12" t="s">
+      <c r="Z148" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="AA148" s="12" t="s">
+      <c r="AA148" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="AB148" s="12" t="s">
+      <c r="AB148" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AC148" s="12"/>
-      <c r="AD148" s="12" t="s">
+      <c r="AD148" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE148" s="17" t="s">
+      <c r="AE148" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AF148" s="15" t="s">
+      <c r="AF148" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG148" s="15" t="s">
+      <c r="AG148" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AH148" s="12"/>
-      <c r="AI148" s="12" t="s">
+      <c r="AI148" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AO148" s="12" t="b">
+      <c r="AO148" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP148" s="12" t="s">
+      <c r="AP148" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AQ148" s="12" t="s">
+      <c r="AQ148" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="AR148" s="12"/>
-    </row>
-    <row r="152" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="T152" t="s">
+    </row>
+    <row r="152" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="T152" s="10" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="153" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="T153" t="s">
+    <row r="153" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="T153" s="10" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="154" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="T154" t="s">
+    <row r="154" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="T154" s="10" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="155" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="T155" t="s">
+    <row r="155" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="T155" s="10" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="156" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="T156" t="s">
+    <row r="156" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="T156" s="10" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="157" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="T157" t="s">
+    <row r="157" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="T157" s="10" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="158" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="T158" t="s">
+    <row r="158" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="T158" s="10" t="s">
         <v>648</v>
       </c>
     </row>
@@ -8634,9 +8169,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>638</v>
       </c>
@@ -8644,7 +8179,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>638</v>
       </c>
@@ -8652,7 +8187,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>637</v>
       </c>
@@ -8660,7 +8195,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>639</v>
       </c>
@@ -8668,7 +8203,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>641</v>
       </c>
